--- a/Output/DoD_Acq_Trends_Contracts.xlsx
+++ b/Output/DoD_Acq_Trends_Contracts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Users\Greg\Repositories\Vendor\Output\"/>
     </mc:Choice>
@@ -46,7 +46,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="408">
   <si>
     <t>Fiscal_Year</t>
   </si>
@@ -1285,14 +1285,44 @@
   <si>
     <t>OMB22_GDP20</t>
   </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="16">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;₩&quot;* #,##0.00_-;\-&quot;₩&quot;* #,##0.00_-;_-&quot;₩&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0\ ;\-#,##0\ ;"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
@@ -1596,7 +1626,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1017">
+  <cellXfs count="1172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4465,6 +4495,471 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -29228,16 +29723,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="15" width="9.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="21" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="28" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="32" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="36" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="15" customWidth="true" hidden="true" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="18" max="21" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="22" max="28" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="29" max="32" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="33" max="36" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -32514,7 +33009,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AT31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="14" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
@@ -32525,14 +33020,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1" collapsed="1"/>
-    <col min="2" max="14" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="19" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="34" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="36" width="13.140625" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="2" max="14" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="15" max="19" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="20" max="34" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="35" max="36" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="29" customFormat="1" ht="12.75">
@@ -33703,73 +34198,103 @@
       <c r="M14" s="185" t="s">
         <v>363</v>
       </c>
-      <c r="N14" s="191" t="s">
+      <c r="N14" s="1017" t="s">
         <v>363</v>
       </c>
-      <c r="O14" s="192" t="s">
+      <c r="O14" s="1018" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="1019" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="1020" t="s">
+        <v>400</v>
+      </c>
+      <c r="R14" s="1021" t="s">
+        <v>401</v>
+      </c>
+      <c r="S14" s="1022" t="s">
+        <v>402</v>
+      </c>
+      <c r="T14" s="1023" t="s">
+        <v>403</v>
+      </c>
+      <c r="U14" s="1024" t="s">
+        <v>404</v>
+      </c>
+      <c r="V14" s="1025" t="s">
+        <v>405</v>
+      </c>
+      <c r="W14" s="1026" t="s">
+        <v>406</v>
+      </c>
+      <c r="X14" s="1027" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y14" s="1028" t="s">
         <v>364</v>
       </c>
-      <c r="P14" s="193" t="s">
+      <c r="Z14" s="1029" t="s">
         <v>365</v>
       </c>
-      <c r="Q14" s="194" t="s">
+      <c r="AA14" s="1030" t="s">
         <v>366</v>
       </c>
-      <c r="R14" s="195" t="s">
+      <c r="AB14" s="1031" t="s">
         <v>367</v>
       </c>
-      <c r="S14" s="196" t="s">
+      <c r="AC14" s="1032" t="s">
         <v>368</v>
       </c>
-      <c r="T14" s="197" t="s">
+      <c r="AD14" s="1033" t="s">
         <v>369</v>
       </c>
-      <c r="U14" s="198" t="s">
+      <c r="AE14" s="1034" t="s">
         <v>370</v>
       </c>
-      <c r="V14" s="199" t="s">
+      <c r="AF14" s="1035" t="s">
         <v>371</v>
       </c>
-      <c r="W14" s="200" t="s">
+      <c r="AG14" s="1036" t="s">
         <v>372</v>
       </c>
-      <c r="X14" s="201" t="s">
+      <c r="AH14" s="1037" t="s">
         <v>373</v>
       </c>
-      <c r="Y14" s="202" t="s">
+      <c r="AI14" s="1038" t="s">
         <v>374</v>
       </c>
-      <c r="Z14" s="203" t="s">
+      <c r="AJ14" s="1039" t="s">
         <v>375</v>
       </c>
-      <c r="AA14" s="204" t="s">
+      <c r="AK14" t="s" s="1040">
         <v>376</v>
       </c>
-      <c r="AB14" s="205" t="s">
+      <c r="AL14" t="s" s="1041">
         <v>377</v>
       </c>
-      <c r="AC14" s="206" t="s">
+      <c r="AM14" t="s" s="1042">
         <v>378</v>
       </c>
-      <c r="AD14" s="207" t="s">
+      <c r="AN14" t="s" s="1043">
         <v>379</v>
       </c>
-      <c r="AE14" s="208" t="s">
+      <c r="AO14" t="s" s="1044">
         <v>380</v>
       </c>
-      <c r="AF14" s="209" t="s">
+      <c r="AP14" t="s" s="1045">
         <v>381</v>
       </c>
-      <c r="AG14" s="210" t="s">
+      <c r="AQ14" t="s" s="1046">
         <v>382</v>
       </c>
-      <c r="AH14" s="211" t="s">
+      <c r="AR14" t="s" s="1047">
         <v>383</v>
       </c>
-      <c r="AI14" s="212" t="s">
+      <c r="AS14" t="s" s="1048">
         <v>384</v>
       </c>
-      <c r="AJ14" s="213" t="s">
+      <c r="AT14" t="s" s="1049">
         <v>385</v>
       </c>
     </row>
@@ -33825,75 +34350,105 @@
         <f t="shared" si="0"/>
         <v>Products (All)</v>
       </c>
-      <c r="N15" s="214" t="str">
+      <c r="N15" s="1050" t="str">
         <f t="shared" si="0"/>
         <v>Products (All)</v>
       </c>
-      <c r="O15" s="218">
-        <v>59593906260.513397</v>
-      </c>
-      <c r="P15" s="222">
-        <v>65053356276.884102</v>
-      </c>
-      <c r="Q15" s="226">
-        <v>76867670916.124802</v>
-      </c>
-      <c r="R15" s="230">
-        <v>94880559227.124695</v>
-      </c>
-      <c r="S15" s="234">
-        <v>103835614735.6581</v>
-      </c>
-      <c r="T15" s="238">
-        <v>123380131431.71851</v>
-      </c>
-      <c r="U15" s="242">
-        <v>136259772874.5437</v>
-      </c>
-      <c r="V15" s="246">
-        <v>158474061509.50229</v>
-      </c>
-      <c r="W15" s="250">
-        <v>189951978660.7807</v>
-      </c>
-      <c r="X15" s="254">
-        <v>173587884989.14899</v>
-      </c>
-      <c r="Y15" s="258">
-        <v>161991727983.64359</v>
-      </c>
-      <c r="Z15" s="262">
-        <v>173047449802.0722</v>
-      </c>
-      <c r="AA15" s="266">
-        <v>171506005342.28839</v>
-      </c>
-      <c r="AB15" s="270">
-        <v>147621626020.737</v>
-      </c>
-      <c r="AC15" s="274">
-        <v>129279257849.1739</v>
-      </c>
-      <c r="AD15" s="277">
-        <v>129766723823.57271</v>
-      </c>
-      <c r="AE15" s="281">
-        <v>148615608115.37509</v>
-      </c>
-      <c r="AF15" s="285">
-        <v>163576431049.4324</v>
-      </c>
-      <c r="AG15" s="289">
-        <v>183110684115.8891</v>
-      </c>
-      <c r="AH15" s="293">
-        <v>193210819805.74329</v>
-      </c>
-      <c r="AI15" s="297">
-        <v>218072457331.68951</v>
-      </c>
-      <c r="AJ15" s="301">
-        <v>194222077002.18851</v>
+      <c r="O15" s="1054" t="n">
+        <v>6.8380721115E10</v>
+      </c>
+      <c r="P15" s="1058" t="n">
+        <v>7.3383395678E10</v>
+      </c>
+      <c r="Q15" s="1061" t="n">
+        <v>6.0090730088E10</v>
+      </c>
+      <c r="R15" s="1064" t="n">
+        <v>6.0299705534E10</v>
+      </c>
+      <c r="S15" s="1067" t="n">
+        <v>5.1512841085E10</v>
+      </c>
+      <c r="T15" s="1070" t="n">
+        <v>4.9691607958E10</v>
+      </c>
+      <c r="U15" s="1073" t="n">
+        <v>5.2193436723E10</v>
+      </c>
+      <c r="V15" s="1076" t="n">
+        <v>4.927878064E10</v>
+      </c>
+      <c r="W15" s="1079" t="n">
+        <v>4.8098195391E10</v>
+      </c>
+      <c r="X15" s="1082" t="n">
+        <v>5.1802770524E10</v>
+      </c>
+      <c r="Y15" s="1085" t="n">
+        <v>5.95939062605134E10</v>
+      </c>
+      <c r="Z15" s="1089" t="n">
+        <v>6.50533562768841E10</v>
+      </c>
+      <c r="AA15" s="1093" t="n">
+        <v>7.68676709161248E10</v>
+      </c>
+      <c r="AB15" s="1097" t="n">
+        <v>9.48805592271247E10</v>
+      </c>
+      <c r="AC15" s="1101" t="n">
+        <v>1.038356147356581E11</v>
+      </c>
+      <c r="AD15" s="1105" t="n">
+        <v>1.233801314317185E11</v>
+      </c>
+      <c r="AE15" s="1109" t="n">
+        <v>1.362597728745437E11</v>
+      </c>
+      <c r="AF15" s="1113" t="n">
+        <v>1.584740615095023E11</v>
+      </c>
+      <c r="AG15" s="1117" t="n">
+        <v>1.899519786607807E11</v>
+      </c>
+      <c r="AH15" s="1121" t="n">
+        <v>1.73587884989149E11</v>
+      </c>
+      <c r="AI15" s="1125" t="n">
+        <v>1.619917279836436E11</v>
+      </c>
+      <c r="AJ15" s="1129" t="n">
+        <v>1.730474498020722E11</v>
+      </c>
+      <c r="AK15" t="n" s="1133">
+        <v>1.715060053422884E11</v>
+      </c>
+      <c r="AL15" t="n" s="1137">
+        <v>1.47621626020737E11</v>
+      </c>
+      <c r="AM15" t="n" s="1141">
+        <v>1.292792578491739E11</v>
+      </c>
+      <c r="AN15" t="n" s="1144">
+        <v>1.2976672382357271E11</v>
+      </c>
+      <c r="AO15" t="n" s="1148">
+        <v>1.486156081153751E11</v>
+      </c>
+      <c r="AP15" t="n" s="1152">
+        <v>1.635764310494324E11</v>
+      </c>
+      <c r="AQ15" t="n" s="1156">
+        <v>1.831106841158891E11</v>
+      </c>
+      <c r="AR15" t="n" s="1160">
+        <v>1.932108198057433E11</v>
+      </c>
+      <c r="AS15" t="n" s="1164">
+        <v>2.180724573316895E11</v>
+      </c>
+      <c r="AT15" t="n" s="1168">
+        <v>1.942220770021885E11</v>
       </c>
     </row>
     <row r="16" spans="1:39" s="29" customFormat="1">
@@ -33948,75 +34503,105 @@
         <f t="shared" si="1"/>
         <v>R&amp;D</v>
       </c>
-      <c r="N16" s="215" t="str">
+      <c r="N16" s="1051" t="str">
         <f t="shared" si="1"/>
         <v>R&amp;D</v>
       </c>
-      <c r="O16" s="219">
-        <v>18975571688.195202</v>
-      </c>
-      <c r="P16" s="223">
-        <v>20659939450.0872</v>
-      </c>
-      <c r="Q16" s="227">
-        <v>24447959897.318298</v>
-      </c>
-      <c r="R16" s="231">
-        <v>28293381987.8419</v>
-      </c>
-      <c r="S16" s="235">
-        <v>29933848137.3657</v>
-      </c>
-      <c r="T16" s="239">
-        <v>34308479488.283798</v>
-      </c>
-      <c r="U16" s="243">
-        <v>37917799020.3451</v>
-      </c>
-      <c r="V16" s="247">
-        <v>40740659030.874496</v>
-      </c>
-      <c r="W16" s="251">
-        <v>39515918070.894402</v>
-      </c>
-      <c r="X16" s="255">
-        <v>41998376180.222298</v>
-      </c>
-      <c r="Y16" s="259">
-        <v>39753925416.627197</v>
-      </c>
-      <c r="Z16" s="263">
-        <v>37470739089.002899</v>
-      </c>
-      <c r="AA16" s="267">
-        <v>33395994906.279099</v>
-      </c>
-      <c r="AB16" s="271">
-        <v>26566746535.464001</v>
-      </c>
-      <c r="AC16" s="275">
-        <v>24194265869.928299</v>
-      </c>
-      <c r="AD16" s="278">
-        <v>22527325311.6689</v>
-      </c>
-      <c r="AE16" s="282">
-        <v>23414434474.478001</v>
-      </c>
-      <c r="AF16" s="286">
-        <v>24590720482.705399</v>
-      </c>
-      <c r="AG16" s="290">
-        <v>26150331530.954102</v>
-      </c>
-      <c r="AH16" s="294">
-        <v>29756218178.5443</v>
-      </c>
-      <c r="AI16" s="298">
-        <v>30219025303.333698</v>
-      </c>
-      <c r="AJ16" s="302">
-        <v>31432718613.424702</v>
+      <c r="O16" s="1055" t="n">
+        <v>2.0132124764E10</v>
+      </c>
+      <c r="P16" s="1059" t="n">
+        <v>1.9885713573E10</v>
+      </c>
+      <c r="Q16" s="1062" t="n">
+        <v>2.0567110455E10</v>
+      </c>
+      <c r="R16" s="1065" t="n">
+        <v>2.1162972669E10</v>
+      </c>
+      <c r="S16" s="1068" t="n">
+        <v>2.1362580777E10</v>
+      </c>
+      <c r="T16" s="1071" t="n">
+        <v>2.1473104298E10</v>
+      </c>
+      <c r="U16" s="1074" t="n">
+        <v>2.0037157373E10</v>
+      </c>
+      <c r="V16" s="1077" t="n">
+        <v>1.9437221946E10</v>
+      </c>
+      <c r="W16" s="1080" t="n">
+        <v>1.9780164014E10</v>
+      </c>
+      <c r="X16" s="1083" t="n">
+        <v>1.9040526682E10</v>
+      </c>
+      <c r="Y16" s="1086" t="n">
+        <v>1.89755716881952E10</v>
+      </c>
+      <c r="Z16" s="1090" t="n">
+        <v>2.06599394500872E10</v>
+      </c>
+      <c r="AA16" s="1094" t="n">
+        <v>2.44479598973183E10</v>
+      </c>
+      <c r="AB16" s="1098" t="n">
+        <v>2.82933819878419E10</v>
+      </c>
+      <c r="AC16" s="1102" t="n">
+        <v>2.99338481373657E10</v>
+      </c>
+      <c r="AD16" s="1106" t="n">
+        <v>3.43084794882838E10</v>
+      </c>
+      <c r="AE16" s="1110" t="n">
+        <v>3.79177990203451E10</v>
+      </c>
+      <c r="AF16" s="1114" t="n">
+        <v>4.07406590308745E10</v>
+      </c>
+      <c r="AG16" s="1118" t="n">
+        <v>3.95159180708944E10</v>
+      </c>
+      <c r="AH16" s="1122" t="n">
+        <v>4.19983761802223E10</v>
+      </c>
+      <c r="AI16" s="1126" t="n">
+        <v>3.97539254166272E10</v>
+      </c>
+      <c r="AJ16" s="1130" t="n">
+        <v>3.74707390890029E10</v>
+      </c>
+      <c r="AK16" t="n" s="1134">
+        <v>3.33959949062791E10</v>
+      </c>
+      <c r="AL16" t="n" s="1138">
+        <v>2.6566746535464E10</v>
+      </c>
+      <c r="AM16" t="n" s="1142">
+        <v>2.41942658699283E10</v>
+      </c>
+      <c r="AN16" t="n" s="1145">
+        <v>2.25273253116689E10</v>
+      </c>
+      <c r="AO16" t="n" s="1149">
+        <v>2.3414434474478E10</v>
+      </c>
+      <c r="AP16" t="n" s="1153">
+        <v>2.45907204827054E10</v>
+      </c>
+      <c r="AQ16" t="n" s="1157">
+        <v>2.61503315309541E10</v>
+      </c>
+      <c r="AR16" t="n" s="1161">
+        <v>2.97562181785443E10</v>
+      </c>
+      <c r="AS16" t="n" s="1165">
+        <v>3.02190253033337E10</v>
+      </c>
+      <c r="AT16" t="n" s="1169">
+        <v>3.14327186134247E10</v>
       </c>
     </row>
     <row r="17" spans="1:42" s="29" customFormat="1" ht="45">
@@ -34071,75 +34656,105 @@
         <f t="shared" si="2"/>
         <v>Services (Non-R&amp;D)</v>
       </c>
-      <c r="N17" s="216" t="str">
+      <c r="N17" s="1052" t="str">
         <f t="shared" si="2"/>
         <v>Services (Non-R&amp;D)</v>
       </c>
-      <c r="O17" s="220">
-        <v>53561991198.140198</v>
-      </c>
-      <c r="P17" s="224">
-        <v>58241719613.047096</v>
-      </c>
-      <c r="Q17" s="228">
-        <v>68359297809.015999</v>
-      </c>
-      <c r="R17" s="232">
-        <v>88281674997.9534</v>
-      </c>
-      <c r="S17" s="236">
-        <v>95849169698.045105</v>
-      </c>
-      <c r="T17" s="240">
-        <v>107812108344.1783</v>
-      </c>
-      <c r="U17" s="244">
-        <v>120796242708.62891</v>
-      </c>
-      <c r="V17" s="248">
-        <v>128733859261.14371</v>
-      </c>
-      <c r="W17" s="252">
-        <v>148186717515.03519</v>
-      </c>
-      <c r="X17" s="256">
-        <v>165494962883.5723</v>
-      </c>
-      <c r="Y17" s="260">
-        <v>160433378820.3725</v>
-      </c>
-      <c r="Z17" s="264">
-        <v>157656124489.7269</v>
-      </c>
-      <c r="AA17" s="268">
-        <v>152372994425.81689</v>
-      </c>
-      <c r="AB17" s="272">
-        <v>132073807550.00099</v>
-      </c>
-      <c r="AC17" s="276">
-        <v>129576837592.31059</v>
-      </c>
-      <c r="AD17" s="279">
-        <v>121638587936.974</v>
-      </c>
-      <c r="AE17" s="283">
-        <v>125996896028.1819</v>
-      </c>
-      <c r="AF17" s="287">
-        <v>132214929602.6804</v>
-      </c>
-      <c r="AG17" s="291">
-        <v>149371989508.138</v>
-      </c>
-      <c r="AH17" s="295">
-        <v>160584610111.2215</v>
-      </c>
-      <c r="AI17" s="299">
-        <v>173015852054.43301</v>
-      </c>
-      <c r="AJ17" s="303">
-        <v>160857964285.306</v>
+      <c r="O17" s="1056" t="n">
+        <v>3.1837283526E10</v>
+      </c>
+      <c r="P17" s="1060" t="n">
+        <v>4.2885084593E10</v>
+      </c>
+      <c r="Q17" s="1063" t="n">
+        <v>4.2748820007E10</v>
+      </c>
+      <c r="R17" s="1066" t="n">
+        <v>3.9910703939E10</v>
+      </c>
+      <c r="S17" s="1069" t="n">
+        <v>4.4286480863E10</v>
+      </c>
+      <c r="T17" s="1072" t="n">
+        <v>4.5427302612E10</v>
+      </c>
+      <c r="U17" s="1075" t="n">
+        <v>4.6218185002E10</v>
+      </c>
+      <c r="V17" s="1078" t="n">
+        <v>4.7266149293E10</v>
+      </c>
+      <c r="W17" s="1081" t="n">
+        <v>4.9087522762E10</v>
+      </c>
+      <c r="X17" s="1084" t="n">
+        <v>5.1341739282E10</v>
+      </c>
+      <c r="Y17" s="1087" t="n">
+        <v>5.35619911981402E10</v>
+      </c>
+      <c r="Z17" s="1091" t="n">
+        <v>5.82417196130471E10</v>
+      </c>
+      <c r="AA17" s="1095" t="n">
+        <v>6.8359297809016E10</v>
+      </c>
+      <c r="AB17" s="1099" t="n">
+        <v>8.82816749979534E10</v>
+      </c>
+      <c r="AC17" s="1103" t="n">
+        <v>9.58491696980451E10</v>
+      </c>
+      <c r="AD17" s="1107" t="n">
+        <v>1.078121083441783E11</v>
+      </c>
+      <c r="AE17" s="1111" t="n">
+        <v>1.207962427086289E11</v>
+      </c>
+      <c r="AF17" s="1115" t="n">
+        <v>1.287338592611437E11</v>
+      </c>
+      <c r="AG17" s="1119" t="n">
+        <v>1.481867175150352E11</v>
+      </c>
+      <c r="AH17" s="1123" t="n">
+        <v>1.654949628835723E11</v>
+      </c>
+      <c r="AI17" s="1127" t="n">
+        <v>1.604333788203725E11</v>
+      </c>
+      <c r="AJ17" s="1131" t="n">
+        <v>1.576561244897269E11</v>
+      </c>
+      <c r="AK17" t="n" s="1135">
+        <v>1.523729944258169E11</v>
+      </c>
+      <c r="AL17" t="n" s="1139">
+        <v>1.3207380755000099E11</v>
+      </c>
+      <c r="AM17" t="n" s="1143">
+        <v>1.295768375923106E11</v>
+      </c>
+      <c r="AN17" t="n" s="1146">
+        <v>1.21638587936974E11</v>
+      </c>
+      <c r="AO17" t="n" s="1150">
+        <v>1.259968960281819E11</v>
+      </c>
+      <c r="AP17" t="n" s="1154">
+        <v>1.322149296026804E11</v>
+      </c>
+      <c r="AQ17" t="n" s="1158">
+        <v>1.49371989508138E11</v>
+      </c>
+      <c r="AR17" t="n" s="1162">
+        <v>1.605846101112215E11</v>
+      </c>
+      <c r="AS17" t="n" s="1166">
+        <v>1.73015852054433E11</v>
+      </c>
+      <c r="AT17" t="n" s="1170">
+        <v>1.60857964285306E11</v>
       </c>
     </row>
     <row r="18" spans="1:42" s="29" customFormat="1" ht="30">
@@ -34182,72 +34797,84 @@
       <c r="M18" s="189" t="s">
         <v>51</v>
       </c>
-      <c r="N18" s="217" t="s">
+      <c r="N18" s="1053" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="221">
-        <v>29507158.538600001</v>
-      </c>
-      <c r="P18" s="225">
-        <v>9838575.9425000008</v>
-      </c>
-      <c r="Q18" s="229">
-        <v>84083862.295499995</v>
-      </c>
-      <c r="R18" s="233">
-        <v>75741000.173999995</v>
-      </c>
-      <c r="S18" s="237">
+      <c r="O18" s="1057" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" s="225"/>
+      <c r="Q18" s="229"/>
+      <c r="R18" s="233"/>
+      <c r="S18" s="237"/>
+      <c r="T18" s="241"/>
+      <c r="U18" s="245"/>
+      <c r="V18" s="249"/>
+      <c r="W18" s="253"/>
+      <c r="X18" s="257"/>
+      <c r="Y18" s="1088" t="n">
+        <v>2.95071585386E7</v>
+      </c>
+      <c r="Z18" s="1092" t="n">
+        <v>9838575.9425</v>
+      </c>
+      <c r="AA18" s="1096" t="n">
+        <v>8.40838622955E7</v>
+      </c>
+      <c r="AB18" s="1100" t="n">
+        <v>7.5741000174E7</v>
+      </c>
+      <c r="AC18" s="1104" t="n">
         <v>7078195.7826000005</v>
       </c>
-      <c r="T18" s="241">
-        <v>3802636.1222999999</v>
-      </c>
-      <c r="U18" s="245">
-        <v>109748294.80769999</v>
-      </c>
-      <c r="V18" s="249">
-        <v>18047585.049899999</v>
-      </c>
-      <c r="W18" s="253">
+      <c r="AD18" s="1108" t="n">
+        <v>3802636.1223</v>
+      </c>
+      <c r="AE18" s="1112" t="n">
+        <v>1.097482948077E8</v>
+      </c>
+      <c r="AF18" s="1116" t="n">
+        <v>1.80475850499E7</v>
+      </c>
+      <c r="AG18" s="1120" t="n">
         <v>368043.21920000005</v>
       </c>
-      <c r="X18" s="257">
-        <v>986168.13329999999</v>
-      </c>
-      <c r="Y18" s="261">
+      <c r="AH18" s="1124" t="n">
+        <v>986168.1333</v>
+      </c>
+      <c r="AI18" s="1128" t="n">
         <v>-253919.658</v>
       </c>
-      <c r="Z18" s="265">
-        <v>-140825.10130000001</v>
-      </c>
-      <c r="AA18" s="269">
-        <v>-6477.8001000000004</v>
-      </c>
-      <c r="AB18" s="273">
-        <v>-99723.120599999995</v>
-      </c>
-      <c r="AC18" s="190"/>
-      <c r="AD18" s="280">
-        <v>30000</v>
-      </c>
-      <c r="AE18" s="284">
-        <v>3581529.4308000002</v>
-      </c>
-      <c r="AF18" s="288">
-        <v>1345607</v>
-      </c>
-      <c r="AG18" s="292">
-        <v>-212795.36720000001</v>
-      </c>
-      <c r="AH18" s="296">
-        <v>465885</v>
-      </c>
-      <c r="AI18" s="300">
+      <c r="AJ18" s="1132" t="n">
+        <v>-140825.1013</v>
+      </c>
+      <c r="AK18" t="n" s="1136">
+        <v>-6477.8001</v>
+      </c>
+      <c r="AL18" t="n" s="1140">
+        <v>-99723.1206</v>
+      </c>
+      <c r="AM18"/>
+      <c r="AN18" t="n" s="1147">
+        <v>30000.0</v>
+      </c>
+      <c r="AO18" t="n" s="1151">
+        <v>3581529.4308</v>
+      </c>
+      <c r="AP18" t="n" s="1155">
+        <v>1345607.0</v>
+      </c>
+      <c r="AQ18" t="n" s="1159">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AR18" t="n" s="1163">
+        <v>465885.0</v>
+      </c>
+      <c r="AS18" t="n" s="1167">
         <v>314555.625</v>
       </c>
-      <c r="AJ18" s="304">
-        <v>386316</v>
+      <c r="AT18" t="n" s="1171">
+        <v>386316.0</v>
       </c>
     </row>
     <row r="19" spans="1:42" s="29" customFormat="1" ht="12.75"/>
@@ -35066,13 +35693,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="14" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="35" width="6.5703125" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="38" width="8.5703125" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="6.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="14" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="17" max="35" customWidth="true" width="6.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="37" max="38" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="6.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
@@ -36993,7 +37620,7 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AL28"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
@@ -37004,8 +37631,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="22" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="22" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -38463,15 +39090,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="52" customWidth="1" collapsed="1"/>
-    <col min="2" max="13" width="9.140625" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="28" width="9.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="35" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="39" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.0" collapsed="true"/>
+    <col min="2" max="13" customWidth="true" hidden="true" width="9.140625" collapsed="true"/>
+    <col min="14" max="28" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="29" max="35" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="38" max="39" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -40734,11 +41361,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="14" width="0" hidden="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="23" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="35" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="14" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="15" max="23" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="32" max="35" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -44825,11 +45452,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="3.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="33.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -46688,9 +47315,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="16" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="2" max="16" bestFit="true" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -48728,390 +49355,390 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="256" width="9" style="76" collapsed="1"/>
-    <col min="257" max="257" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="258" max="258" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="259" max="259" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="260" max="260" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="261" max="261" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="262" max="512" width="9" style="76" collapsed="1"/>
-    <col min="513" max="513" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="514" max="514" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="515" max="515" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="516" max="516" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="517" max="517" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="518" max="768" width="9" style="76" collapsed="1"/>
-    <col min="769" max="769" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="770" max="770" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="771" max="771" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="772" max="772" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="773" max="773" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="774" max="1024" width="9" style="76" collapsed="1"/>
-    <col min="1025" max="1025" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1026" max="1026" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1027" max="1027" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1028" max="1028" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1029" max="1029" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1030" max="1280" width="9" style="76" collapsed="1"/>
-    <col min="1281" max="1281" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1282" max="1282" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1283" max="1283" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1284" max="1284" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1285" max="1285" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1286" max="1536" width="9" style="76" collapsed="1"/>
-    <col min="1537" max="1537" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1538" max="1538" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1539" max="1539" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1540" max="1540" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1541" max="1541" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1542" max="1792" width="9" style="76" collapsed="1"/>
-    <col min="1793" max="1793" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1794" max="1794" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1795" max="1795" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1796" max="1796" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1797" max="1797" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1798" max="2048" width="9" style="76" collapsed="1"/>
-    <col min="2049" max="2049" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2050" max="2050" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2051" max="2051" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2052" max="2052" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2053" max="2053" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2054" max="2304" width="9" style="76" collapsed="1"/>
-    <col min="2305" max="2305" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2306" max="2306" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2307" max="2307" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2308" max="2308" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2309" max="2309" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2310" max="2560" width="9" style="76" collapsed="1"/>
-    <col min="2561" max="2561" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2562" max="2562" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2563" max="2563" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2564" max="2564" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2565" max="2565" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2566" max="2816" width="9" style="76" collapsed="1"/>
-    <col min="2817" max="2817" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2818" max="2818" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2819" max="2819" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2820" max="2820" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2821" max="2821" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2822" max="3072" width="9" style="76" collapsed="1"/>
-    <col min="3073" max="3073" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3074" max="3074" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3075" max="3075" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3076" max="3076" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3077" max="3077" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3078" max="3328" width="9" style="76" collapsed="1"/>
-    <col min="3329" max="3329" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3330" max="3330" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3331" max="3331" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3332" max="3332" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3333" max="3333" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3334" max="3584" width="9" style="76" collapsed="1"/>
-    <col min="3585" max="3585" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3586" max="3586" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3587" max="3587" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3588" max="3588" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3589" max="3589" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3590" max="3840" width="9" style="76" collapsed="1"/>
-    <col min="3841" max="3841" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3842" max="3842" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3843" max="3843" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3844" max="3844" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3845" max="3845" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3846" max="4096" width="9" style="76" collapsed="1"/>
-    <col min="4097" max="4097" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4098" max="4098" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4099" max="4099" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4100" max="4100" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4101" max="4101" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4102" max="4352" width="9" style="76" collapsed="1"/>
-    <col min="4353" max="4353" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4354" max="4354" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4355" max="4355" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4356" max="4356" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4357" max="4357" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4358" max="4608" width="9" style="76" collapsed="1"/>
-    <col min="4609" max="4609" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4610" max="4610" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4611" max="4611" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4612" max="4612" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4613" max="4613" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4614" max="4864" width="9" style="76" collapsed="1"/>
-    <col min="4865" max="4865" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4866" max="4866" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4867" max="4867" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4868" max="4868" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4869" max="4869" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4870" max="5120" width="9" style="76" collapsed="1"/>
-    <col min="5121" max="5121" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5122" max="5122" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5123" max="5123" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5124" max="5124" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5125" max="5125" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5126" max="5376" width="9" style="76" collapsed="1"/>
-    <col min="5377" max="5377" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5378" max="5378" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5379" max="5379" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5380" max="5380" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5381" max="5381" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5382" max="5632" width="9" style="76" collapsed="1"/>
-    <col min="5633" max="5633" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5634" max="5634" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5635" max="5635" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5636" max="5636" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5637" max="5637" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5638" max="5888" width="9" style="76" collapsed="1"/>
-    <col min="5889" max="5889" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5890" max="5890" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5891" max="5891" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5892" max="5892" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5893" max="5893" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5894" max="6144" width="9" style="76" collapsed="1"/>
-    <col min="6145" max="6145" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6146" max="6146" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6147" max="6147" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6148" max="6148" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6149" max="6149" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6150" max="6400" width="9" style="76" collapsed="1"/>
-    <col min="6401" max="6401" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6402" max="6402" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6403" max="6403" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6404" max="6404" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6405" max="6405" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6406" max="6656" width="9" style="76" collapsed="1"/>
-    <col min="6657" max="6657" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6658" max="6658" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6659" max="6659" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6660" max="6660" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6661" max="6661" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6662" max="6912" width="9" style="76" collapsed="1"/>
-    <col min="6913" max="6913" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6914" max="6914" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6915" max="6915" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6916" max="6916" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6917" max="6917" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6918" max="7168" width="9" style="76" collapsed="1"/>
-    <col min="7169" max="7169" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7170" max="7170" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7171" max="7171" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7172" max="7172" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7173" max="7173" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7174" max="7424" width="9" style="76" collapsed="1"/>
-    <col min="7425" max="7425" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7426" max="7426" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7427" max="7427" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7428" max="7428" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7429" max="7429" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7430" max="7680" width="9" style="76" collapsed="1"/>
-    <col min="7681" max="7681" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7682" max="7682" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7683" max="7683" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7684" max="7684" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7685" max="7685" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7686" max="7936" width="9" style="76" collapsed="1"/>
-    <col min="7937" max="7937" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7938" max="7938" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7939" max="7939" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7940" max="7940" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7941" max="7941" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7942" max="8192" width="9" style="76" collapsed="1"/>
-    <col min="8193" max="8193" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8194" max="8194" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8195" max="8195" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8196" max="8196" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8197" max="8197" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8198" max="8448" width="9" style="76" collapsed="1"/>
-    <col min="8449" max="8449" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8450" max="8450" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8451" max="8451" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8452" max="8452" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8453" max="8453" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8454" max="8704" width="9" style="76" collapsed="1"/>
-    <col min="8705" max="8705" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8706" max="8706" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8707" max="8707" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8708" max="8708" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8709" max="8709" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8710" max="8960" width="9" style="76" collapsed="1"/>
-    <col min="8961" max="8961" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8962" max="8962" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8963" max="8963" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8964" max="8964" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8965" max="8965" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8966" max="9216" width="9" style="76" collapsed="1"/>
-    <col min="9217" max="9217" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9218" max="9218" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9219" max="9219" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9220" max="9220" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9221" max="9221" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9222" max="9472" width="9" style="76" collapsed="1"/>
-    <col min="9473" max="9473" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9474" max="9474" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9475" max="9475" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9476" max="9476" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9477" max="9477" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9478" max="9728" width="9" style="76" collapsed="1"/>
-    <col min="9729" max="9729" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9730" max="9730" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9731" max="9731" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9732" max="9732" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9733" max="9733" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9734" max="9984" width="9" style="76" collapsed="1"/>
-    <col min="9985" max="9985" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9986" max="9986" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9987" max="9987" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9988" max="9988" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9989" max="9989" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9990" max="10240" width="9" style="76" collapsed="1"/>
-    <col min="10241" max="10241" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10242" max="10242" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10243" max="10243" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10244" max="10244" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10245" max="10245" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10246" max="10496" width="9" style="76" collapsed="1"/>
-    <col min="10497" max="10497" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10498" max="10498" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10499" max="10499" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10500" max="10500" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10501" max="10501" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10502" max="10752" width="9" style="76" collapsed="1"/>
-    <col min="10753" max="10753" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10754" max="10754" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10755" max="10755" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10756" max="10756" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10757" max="10757" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10758" max="11008" width="9" style="76" collapsed="1"/>
-    <col min="11009" max="11009" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11010" max="11010" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11011" max="11011" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11012" max="11012" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11013" max="11013" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11014" max="11264" width="9" style="76" collapsed="1"/>
-    <col min="11265" max="11265" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11266" max="11266" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11267" max="11267" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11268" max="11268" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11269" max="11269" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11270" max="11520" width="9" style="76" collapsed="1"/>
-    <col min="11521" max="11521" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11522" max="11522" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11523" max="11523" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11524" max="11524" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11525" max="11525" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11526" max="11776" width="9" style="76" collapsed="1"/>
-    <col min="11777" max="11777" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11778" max="11778" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11779" max="11779" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11780" max="11780" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11781" max="11781" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11782" max="12032" width="9" style="76" collapsed="1"/>
-    <col min="12033" max="12033" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12034" max="12034" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12035" max="12035" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12036" max="12036" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12037" max="12037" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12038" max="12288" width="9" style="76" collapsed="1"/>
-    <col min="12289" max="12289" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12290" max="12290" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12291" max="12291" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12292" max="12292" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12293" max="12293" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12294" max="12544" width="9" style="76" collapsed="1"/>
-    <col min="12545" max="12545" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12546" max="12546" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12547" max="12547" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12548" max="12548" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12549" max="12549" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12550" max="12800" width="9" style="76" collapsed="1"/>
-    <col min="12801" max="12801" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12802" max="12802" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12803" max="12803" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12804" max="12804" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12805" max="12805" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12806" max="13056" width="9" style="76" collapsed="1"/>
-    <col min="13057" max="13057" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13058" max="13058" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13059" max="13059" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13060" max="13060" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13061" max="13061" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13062" max="13312" width="9" style="76" collapsed="1"/>
-    <col min="13313" max="13313" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13314" max="13314" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13315" max="13315" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13316" max="13316" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13317" max="13317" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13318" max="13568" width="9" style="76" collapsed="1"/>
-    <col min="13569" max="13569" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13570" max="13570" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13571" max="13571" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13572" max="13572" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13573" max="13573" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13574" max="13824" width="9" style="76" collapsed="1"/>
-    <col min="13825" max="13825" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13826" max="13826" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13827" max="13827" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13828" max="13828" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13829" max="13829" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13830" max="14080" width="9" style="76" collapsed="1"/>
-    <col min="14081" max="14081" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14082" max="14082" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14083" max="14083" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14084" max="14084" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14085" max="14085" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14086" max="14336" width="9" style="76" collapsed="1"/>
-    <col min="14337" max="14337" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14338" max="14338" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14339" max="14339" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14340" max="14340" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14341" max="14341" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14342" max="14592" width="9" style="76" collapsed="1"/>
-    <col min="14593" max="14593" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14594" max="14594" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14595" max="14595" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14596" max="14596" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14597" max="14597" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14598" max="14848" width="9" style="76" collapsed="1"/>
-    <col min="14849" max="14849" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14850" max="14850" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14851" max="14851" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14852" max="14852" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14853" max="14853" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14854" max="15104" width="9" style="76" collapsed="1"/>
-    <col min="15105" max="15105" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15106" max="15106" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15107" max="15107" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15108" max="15108" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15109" max="15109" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15110" max="15360" width="9" style="76" collapsed="1"/>
-    <col min="15361" max="15361" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15362" max="15362" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15363" max="15363" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15364" max="15364" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15365" max="15365" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15366" max="15616" width="9" style="76" collapsed="1"/>
-    <col min="15617" max="15617" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15618" max="15618" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15619" max="15619" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15620" max="15620" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15621" max="15621" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15622" max="15872" width="9" style="76" collapsed="1"/>
-    <col min="15873" max="15873" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15874" max="15874" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15875" max="15875" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15876" max="15876" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15877" max="15877" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15878" max="16128" width="9" style="76" collapsed="1"/>
-    <col min="16129" max="16129" width="66.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16130" max="16130" width="22.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16131" max="16131" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16132" max="16132" width="18.85546875" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16133" max="16133" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16134" max="16384" width="9" style="76" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="6" max="256" style="76" width="9.0" collapsed="true"/>
+    <col min="257" max="257" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="258" max="258" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="259" max="259" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="260" max="260" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="261" max="261" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="262" max="512" style="76" width="9.0" collapsed="true"/>
+    <col min="513" max="513" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="514" max="514" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="515" max="515" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="516" max="516" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="517" max="517" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="518" max="768" style="76" width="9.0" collapsed="true"/>
+    <col min="769" max="769" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="770" max="770" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="771" max="771" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="772" max="772" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="773" max="773" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="774" max="1024" style="76" width="9.0" collapsed="true"/>
+    <col min="1025" max="1025" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="1026" max="1026" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="1027" max="1027" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="1028" max="1028" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="1029" max="1029" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="1030" max="1280" style="76" width="9.0" collapsed="true"/>
+    <col min="1281" max="1281" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="1282" max="1282" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="1283" max="1283" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="1284" max="1284" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="1285" max="1285" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="1286" max="1536" style="76" width="9.0" collapsed="true"/>
+    <col min="1537" max="1537" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="1538" max="1538" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="1539" max="1539" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="1540" max="1540" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="1541" max="1541" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="1542" max="1792" style="76" width="9.0" collapsed="true"/>
+    <col min="1793" max="1793" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="1794" max="1794" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="1795" max="1795" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="1796" max="1796" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="1797" max="1797" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="1798" max="2048" style="76" width="9.0" collapsed="true"/>
+    <col min="2049" max="2049" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="2050" max="2050" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="2051" max="2051" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="2052" max="2052" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="2053" max="2053" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="2054" max="2304" style="76" width="9.0" collapsed="true"/>
+    <col min="2305" max="2305" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="2306" max="2306" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="2307" max="2307" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="2308" max="2308" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="2309" max="2309" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="2310" max="2560" style="76" width="9.0" collapsed="true"/>
+    <col min="2561" max="2561" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="2562" max="2562" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="2563" max="2563" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="2564" max="2564" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="2565" max="2565" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="2566" max="2816" style="76" width="9.0" collapsed="true"/>
+    <col min="2817" max="2817" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="2818" max="2818" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="2819" max="2819" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="2820" max="2820" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="2821" max="2821" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="2822" max="3072" style="76" width="9.0" collapsed="true"/>
+    <col min="3073" max="3073" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="3074" max="3074" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="3075" max="3075" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="3076" max="3076" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="3077" max="3077" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="3078" max="3328" style="76" width="9.0" collapsed="true"/>
+    <col min="3329" max="3329" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="3330" max="3330" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="3331" max="3331" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="3332" max="3332" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="3333" max="3333" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="3334" max="3584" style="76" width="9.0" collapsed="true"/>
+    <col min="3585" max="3585" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="3586" max="3586" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="3587" max="3587" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="3588" max="3588" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="3589" max="3589" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="3590" max="3840" style="76" width="9.0" collapsed="true"/>
+    <col min="3841" max="3841" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="3842" max="3842" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="3843" max="3843" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="3844" max="3844" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="3845" max="3845" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="3846" max="4096" style="76" width="9.0" collapsed="true"/>
+    <col min="4097" max="4097" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="4098" max="4098" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="4099" max="4099" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="4100" max="4100" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="4101" max="4101" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="4102" max="4352" style="76" width="9.0" collapsed="true"/>
+    <col min="4353" max="4353" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="4354" max="4354" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="4355" max="4355" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="4356" max="4356" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="4357" max="4357" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="4358" max="4608" style="76" width="9.0" collapsed="true"/>
+    <col min="4609" max="4609" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="4610" max="4610" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="4611" max="4611" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="4612" max="4612" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="4613" max="4613" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="4614" max="4864" style="76" width="9.0" collapsed="true"/>
+    <col min="4865" max="4865" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="4866" max="4866" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="4867" max="4867" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="4868" max="4868" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="4869" max="4869" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="4870" max="5120" style="76" width="9.0" collapsed="true"/>
+    <col min="5121" max="5121" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="5122" max="5122" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="5123" max="5123" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="5124" max="5124" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="5125" max="5125" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="5126" max="5376" style="76" width="9.0" collapsed="true"/>
+    <col min="5377" max="5377" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="5378" max="5378" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="5379" max="5379" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="5380" max="5380" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="5381" max="5381" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="5382" max="5632" style="76" width="9.0" collapsed="true"/>
+    <col min="5633" max="5633" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="5634" max="5634" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="5635" max="5635" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="5636" max="5636" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="5637" max="5637" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="5638" max="5888" style="76" width="9.0" collapsed="true"/>
+    <col min="5889" max="5889" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="5890" max="5890" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="5891" max="5891" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="5892" max="5892" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="5893" max="5893" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="5894" max="6144" style="76" width="9.0" collapsed="true"/>
+    <col min="6145" max="6145" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="6146" max="6146" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="6147" max="6147" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="6148" max="6148" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="6149" max="6149" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="6150" max="6400" style="76" width="9.0" collapsed="true"/>
+    <col min="6401" max="6401" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="6402" max="6402" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="6403" max="6403" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="6404" max="6404" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="6405" max="6405" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="6406" max="6656" style="76" width="9.0" collapsed="true"/>
+    <col min="6657" max="6657" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="6658" max="6658" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="6659" max="6659" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="6660" max="6660" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="6661" max="6661" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="6662" max="6912" style="76" width="9.0" collapsed="true"/>
+    <col min="6913" max="6913" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="6914" max="6914" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="6915" max="6915" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="6916" max="6916" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="6917" max="6917" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="6918" max="7168" style="76" width="9.0" collapsed="true"/>
+    <col min="7169" max="7169" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="7170" max="7170" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="7171" max="7171" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="7172" max="7172" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="7173" max="7173" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="7174" max="7424" style="76" width="9.0" collapsed="true"/>
+    <col min="7425" max="7425" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="7426" max="7426" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="7427" max="7427" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="7428" max="7428" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="7429" max="7429" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="7430" max="7680" style="76" width="9.0" collapsed="true"/>
+    <col min="7681" max="7681" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="7682" max="7682" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="7683" max="7683" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="7684" max="7684" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="7685" max="7685" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="7686" max="7936" style="76" width="9.0" collapsed="true"/>
+    <col min="7937" max="7937" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="7938" max="7938" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="7939" max="7939" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="7940" max="7940" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="7941" max="7941" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="7942" max="8192" style="76" width="9.0" collapsed="true"/>
+    <col min="8193" max="8193" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="8194" max="8194" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="8195" max="8195" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="8196" max="8196" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="8197" max="8197" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="8198" max="8448" style="76" width="9.0" collapsed="true"/>
+    <col min="8449" max="8449" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="8450" max="8450" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="8451" max="8451" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="8452" max="8452" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="8453" max="8453" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="8454" max="8704" style="76" width="9.0" collapsed="true"/>
+    <col min="8705" max="8705" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="8706" max="8706" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="8707" max="8707" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="8708" max="8708" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="8709" max="8709" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="8710" max="8960" style="76" width="9.0" collapsed="true"/>
+    <col min="8961" max="8961" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="8962" max="8962" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="8963" max="8963" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="8964" max="8964" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="8965" max="8965" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="8966" max="9216" style="76" width="9.0" collapsed="true"/>
+    <col min="9217" max="9217" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="9218" max="9218" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="9219" max="9219" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="9220" max="9220" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="9221" max="9221" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="9222" max="9472" style="76" width="9.0" collapsed="true"/>
+    <col min="9473" max="9473" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="9474" max="9474" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="9475" max="9475" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="9476" max="9476" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="9477" max="9477" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="9478" max="9728" style="76" width="9.0" collapsed="true"/>
+    <col min="9729" max="9729" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="9730" max="9730" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="9731" max="9731" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="9732" max="9732" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="9733" max="9733" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="9734" max="9984" style="76" width="9.0" collapsed="true"/>
+    <col min="9985" max="9985" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="9986" max="9986" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="9987" max="9987" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="9988" max="9988" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="9989" max="9989" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="9990" max="10240" style="76" width="9.0" collapsed="true"/>
+    <col min="10241" max="10241" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="10242" max="10242" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="10243" max="10243" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="10244" max="10244" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="10245" max="10245" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="10246" max="10496" style="76" width="9.0" collapsed="true"/>
+    <col min="10497" max="10497" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="10498" max="10498" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="10499" max="10499" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="10500" max="10500" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="10501" max="10501" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="10502" max="10752" style="76" width="9.0" collapsed="true"/>
+    <col min="10753" max="10753" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="10754" max="10754" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="10755" max="10755" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="10756" max="10756" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="10757" max="10757" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="10758" max="11008" style="76" width="9.0" collapsed="true"/>
+    <col min="11009" max="11009" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="11010" max="11010" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="11011" max="11011" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="11012" max="11012" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="11013" max="11013" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="11014" max="11264" style="76" width="9.0" collapsed="true"/>
+    <col min="11265" max="11265" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="11266" max="11266" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="11267" max="11267" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="11268" max="11268" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="11269" max="11269" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="11270" max="11520" style="76" width="9.0" collapsed="true"/>
+    <col min="11521" max="11521" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="11522" max="11522" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="11523" max="11523" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="11524" max="11524" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="11525" max="11525" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="11526" max="11776" style="76" width="9.0" collapsed="true"/>
+    <col min="11777" max="11777" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="11778" max="11778" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="11779" max="11779" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="11780" max="11780" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="11781" max="11781" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="11782" max="12032" style="76" width="9.0" collapsed="true"/>
+    <col min="12033" max="12033" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="12034" max="12034" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="12035" max="12035" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="12036" max="12036" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="12037" max="12037" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="12038" max="12288" style="76" width="9.0" collapsed="true"/>
+    <col min="12289" max="12289" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="12290" max="12290" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="12291" max="12291" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="12292" max="12292" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="12293" max="12293" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="12294" max="12544" style="76" width="9.0" collapsed="true"/>
+    <col min="12545" max="12545" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="12546" max="12546" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="12547" max="12547" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="12548" max="12548" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="12549" max="12549" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="12550" max="12800" style="76" width="9.0" collapsed="true"/>
+    <col min="12801" max="12801" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="12802" max="12802" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="12803" max="12803" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="12804" max="12804" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="12805" max="12805" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="12806" max="13056" style="76" width="9.0" collapsed="true"/>
+    <col min="13057" max="13057" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="13058" max="13058" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="13059" max="13059" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="13060" max="13060" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="13061" max="13061" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="13062" max="13312" style="76" width="9.0" collapsed="true"/>
+    <col min="13313" max="13313" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="13314" max="13314" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="13315" max="13315" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="13316" max="13316" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="13317" max="13317" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="13318" max="13568" style="76" width="9.0" collapsed="true"/>
+    <col min="13569" max="13569" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="13570" max="13570" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="13571" max="13571" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="13572" max="13572" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="13573" max="13573" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="13574" max="13824" style="76" width="9.0" collapsed="true"/>
+    <col min="13825" max="13825" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="13826" max="13826" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="13827" max="13827" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="13828" max="13828" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="13829" max="13829" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="13830" max="14080" style="76" width="9.0" collapsed="true"/>
+    <col min="14081" max="14081" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="14082" max="14082" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="14083" max="14083" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="14084" max="14084" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="14085" max="14085" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="14086" max="14336" style="76" width="9.0" collapsed="true"/>
+    <col min="14337" max="14337" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="14338" max="14338" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="14339" max="14339" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="14340" max="14340" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="14341" max="14341" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="14342" max="14592" style="76" width="9.0" collapsed="true"/>
+    <col min="14593" max="14593" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="14594" max="14594" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="14595" max="14595" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="14596" max="14596" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="14597" max="14597" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="14598" max="14848" style="76" width="9.0" collapsed="true"/>
+    <col min="14849" max="14849" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="14850" max="14850" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="14851" max="14851" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="14852" max="14852" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="14853" max="14853" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="14854" max="15104" style="76" width="9.0" collapsed="true"/>
+    <col min="15105" max="15105" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="15106" max="15106" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="15107" max="15107" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="15108" max="15108" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="15109" max="15109" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="15110" max="15360" style="76" width="9.0" collapsed="true"/>
+    <col min="15361" max="15361" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="15362" max="15362" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="15363" max="15363" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="15364" max="15364" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="15365" max="15365" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="15366" max="15616" style="76" width="9.0" collapsed="true"/>
+    <col min="15617" max="15617" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="15618" max="15618" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="15619" max="15619" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="15620" max="15620" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="15621" max="15621" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="15622" max="15872" style="76" width="9.0" collapsed="true"/>
+    <col min="15873" max="15873" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="15874" max="15874" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="15875" max="15875" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="15876" max="15876" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="15877" max="15877" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="15878" max="16128" style="76" width="9.0" collapsed="true"/>
+    <col min="16129" max="16129" bestFit="true" customWidth="true" style="76" width="66.5703125" collapsed="true"/>
+    <col min="16130" max="16130" bestFit="true" customWidth="true" style="76" width="22.42578125" collapsed="true"/>
+    <col min="16131" max="16131" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="16132" max="16132" bestFit="true" customWidth="true" style="76" width="18.85546875" collapsed="true"/>
+    <col min="16133" max="16133" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="16134" max="16384" style="76" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -50857,14 +51484,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="59.140625" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.42578125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.28515625" style="89" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" style="81" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.7109375" style="81" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9" style="76" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" style="76" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9" style="76" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="76" width="59.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="76" width="21.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="89" width="20.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="81" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="81" width="17.7109375" collapsed="true"/>
+    <col min="6" max="6" style="76" width="9.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="76" width="18.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="76" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -52634,15 +53261,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="15" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="23" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="5" max="8" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="9" max="15" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="16" max="19" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="20" max="23" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -55285,13 +55912,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" style="90" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="21.42578125" style="90" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="90" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" style="90" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9" style="90" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="90" width="73.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="90" width="21.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="90" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="90" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="19.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="20.7109375" collapsed="true"/>
+    <col min="8" max="16384" style="90" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -59012,8 +59639,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="22" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="22" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26">
@@ -60339,7 +60966,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="23" max="24" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -60934,12 +61561,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="23" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="21" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="23" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -62702,12 +63329,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.42578125" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="23" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="21" width="28.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="23" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -64161,28 +64788,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:22">
@@ -65840,15 +66467,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="23" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="10" max="23" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -69247,15 +69874,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="23" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="10" max="23" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">

--- a/Output/DoD_Acq_Trends_Contracts.xlsx
+++ b/Output/DoD_Acq_Trends_Contracts.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="408">
   <si>
     <t>Fiscal_Year</t>
   </si>
@@ -1626,7 +1626,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1172">
+  <cellXfs count="1314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -4824,6 +4824,432 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="10">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="11">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12">
@@ -59644,76 +60070,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26">
-      <c r="A2" s="945" t="s">
+      <c r="A2" s="1243" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="946" t="s">
+      <c r="B2" s="1244" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="947" t="s">
+      <c r="C2" s="1245" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="948" t="s">
+      <c r="D2" s="1246" t="s">
         <v>366</v>
       </c>
-      <c r="E2" s="949" t="s">
+      <c r="E2" s="1247" t="s">
         <v>367</v>
       </c>
-      <c r="F2" s="950" t="s">
+      <c r="F2" s="1248" t="s">
         <v>368</v>
       </c>
-      <c r="G2" s="951" t="s">
+      <c r="G2" s="1249" t="s">
         <v>369</v>
       </c>
-      <c r="H2" s="952" t="s">
+      <c r="H2" s="1250" t="s">
         <v>370</v>
       </c>
-      <c r="I2" s="953" t="s">
+      <c r="I2" s="1251" t="s">
         <v>371</v>
       </c>
-      <c r="J2" s="954" t="s">
+      <c r="J2" s="1252" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="955" t="s">
+      <c r="K2" s="1253" t="s">
         <v>373</v>
       </c>
-      <c r="L2" s="956" t="s">
+      <c r="L2" s="1254" t="s">
         <v>374</v>
       </c>
-      <c r="M2" s="957" t="s">
+      <c r="M2" s="1255" t="s">
         <v>375</v>
       </c>
-      <c r="N2" s="958" t="s">
+      <c r="N2" s="1256" t="s">
         <v>376</v>
       </c>
-      <c r="O2" s="959" t="s">
+      <c r="O2" s="1257" t="s">
         <v>377</v>
       </c>
-      <c r="P2" s="960" t="s">
+      <c r="P2" s="1258" t="s">
         <v>378</v>
       </c>
-      <c r="Q2" s="961" t="s">
+      <c r="Q2" s="1259" t="s">
         <v>379</v>
       </c>
-      <c r="R2" s="962" t="s">
+      <c r="R2" s="1260" t="s">
         <v>380</v>
       </c>
-      <c r="S2" s="963" t="s">
+      <c r="S2" s="1261" t="s">
         <v>381</v>
       </c>
-      <c r="T2" s="964" t="s">
+      <c r="T2" s="1262" t="s">
         <v>382</v>
       </c>
-      <c r="U2" s="965" t="s">
+      <c r="U2" s="1263" t="s">
         <v>383</v>
       </c>
-      <c r="V2" s="966" t="s">
+      <c r="V2" s="1264" t="s">
         <v>384</v>
       </c>
-      <c r="W2" s="967" t="s">
+      <c r="W2" s="1265" t="s">
         <v>385</v>
       </c>
-      <c r="X2" s="968" t="s">
+      <c r="X2" s="1266" t="s">
         <v>394</v>
       </c>
       <c r="Y2">
@@ -59721,74 +60147,74 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="969" t="s">
+      <c r="A3" s="1267" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="971">
-        <v>132160976305.38741</v>
-      </c>
-      <c r="C3" s="973">
-        <v>143964853915.96091</v>
-      </c>
-      <c r="D3" s="975">
-        <v>169759012484.75461</v>
-      </c>
-      <c r="E3" s="977">
-        <v>211531357213.09399</v>
-      </c>
-      <c r="F3" s="979">
-        <v>229625710766.8515</v>
-      </c>
-      <c r="G3" s="981">
-        <v>265504521900.30289</v>
-      </c>
-      <c r="H3" s="983">
-        <v>295083562898.32538</v>
-      </c>
-      <c r="I3" s="985">
-        <v>327966627386.57037</v>
-      </c>
-      <c r="J3" s="987">
-        <v>377654982289.9295</v>
-      </c>
-      <c r="K3" s="989">
-        <v>381082210221.0769</v>
-      </c>
-      <c r="L3" s="991">
-        <v>362178778300.98529</v>
-      </c>
-      <c r="M3" s="993">
-        <v>368174172555.70068</v>
-      </c>
-      <c r="N3" s="995">
-        <v>357274988196.58429</v>
-      </c>
-      <c r="O3" s="997">
-        <v>306262080383.08142</v>
-      </c>
-      <c r="P3" s="999">
-        <v>283050361311.41278</v>
-      </c>
-      <c r="Q3" s="1001">
-        <v>273932667072.21561</v>
-      </c>
-      <c r="R3" s="1003">
-        <v>298030520147.46582</v>
-      </c>
-      <c r="S3" s="1005">
-        <v>320383426741.81818</v>
-      </c>
-      <c r="T3" s="1007">
-        <v>358632792359.61401</v>
-      </c>
-      <c r="U3" s="1009">
-        <v>383552113980.50909</v>
-      </c>
-      <c r="V3" s="1011">
-        <v>421307649245.08118</v>
-      </c>
-      <c r="W3" s="1013">
-        <v>386513146216.91919</v>
+      <c r="B3" s="1269" t="n">
+        <v>1.321609763053874E11</v>
+      </c>
+      <c r="C3" s="1271" t="n">
+        <v>1.439648539159609E11</v>
+      </c>
+      <c r="D3" s="1273" t="n">
+        <v>1.697590124847546E11</v>
+      </c>
+      <c r="E3" s="1275" t="n">
+        <v>2.11531357213094E11</v>
+      </c>
+      <c r="F3" s="1277" t="n">
+        <v>2.296257107668515E11</v>
+      </c>
+      <c r="G3" s="1279" t="n">
+        <v>2.655045219003029E11</v>
+      </c>
+      <c r="H3" s="1281" t="n">
+        <v>2.9508356289832544E11</v>
+      </c>
+      <c r="I3" s="1283" t="n">
+        <v>3.2796662738657043E11</v>
+      </c>
+      <c r="J3" s="1285" t="n">
+        <v>3.776549822899295E11</v>
+      </c>
+      <c r="K3" s="1287" t="n">
+        <v>3.8108221022107684E11</v>
+      </c>
+      <c r="L3" s="1289" t="n">
+        <v>3.621787783009853E11</v>
+      </c>
+      <c r="M3" s="1291" t="n">
+        <v>3.681741725557007E11</v>
+      </c>
+      <c r="N3" s="1293" t="n">
+        <v>3.572749881965843E11</v>
+      </c>
+      <c r="O3" s="1295" t="n">
+        <v>3.062620803830814E11</v>
+      </c>
+      <c r="P3" s="1297" t="n">
+        <v>2.830503613114128E11</v>
+      </c>
+      <c r="Q3" s="1299" t="n">
+        <v>2.739326670722156E11</v>
+      </c>
+      <c r="R3" s="1301" t="n">
+        <v>2.9803052014746576E11</v>
+      </c>
+      <c r="S3" s="1303" t="n">
+        <v>3.203834267418182E11</v>
+      </c>
+      <c r="T3" s="1305" t="n">
+        <v>3.58632792359614E11</v>
+      </c>
+      <c r="U3" s="1307" t="n">
+        <v>3.8355211398050916E11</v>
+      </c>
+      <c r="V3" s="1309" t="n">
+        <v>4.213076492450812E11</v>
+      </c>
+      <c r="W3" s="1311" t="n">
+        <v>3.865131462169192E11</v>
       </c>
       <c r="X3" s="68"/>
       <c r="Y3" s="7">
@@ -59796,77 +60222,77 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="970" t="s">
+      <c r="A4" s="1268" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="972">
-        <v>286958000000</v>
-      </c>
-      <c r="C4" s="974">
-        <v>316540000000</v>
-      </c>
-      <c r="D4" s="976">
-        <v>355378000000</v>
-      </c>
-      <c r="E4" s="978">
-        <v>433024000000</v>
-      </c>
-      <c r="F4" s="980">
-        <v>456052000000</v>
-      </c>
-      <c r="G4" s="982">
-        <v>502476000000</v>
-      </c>
-      <c r="H4" s="984">
-        <v>536272000000</v>
-      </c>
-      <c r="I4" s="986">
-        <v>603872000000</v>
-      </c>
-      <c r="J4" s="988">
-        <v>669279000000</v>
-      </c>
-      <c r="K4" s="990">
-        <v>665861000000</v>
-      </c>
-      <c r="L4" s="992">
-        <v>691791000000</v>
-      </c>
-      <c r="M4" s="994">
-        <v>689092000000</v>
-      </c>
-      <c r="N4" s="996">
-        <v>652288000000</v>
-      </c>
-      <c r="O4" s="998">
-        <v>585393000000</v>
-      </c>
-      <c r="P4" s="1000">
-        <v>581188000000</v>
-      </c>
-      <c r="Q4" s="1002">
-        <v>565403000000</v>
-      </c>
-      <c r="R4" s="1004">
-        <v>587978000000</v>
-      </c>
-      <c r="S4" s="1006">
-        <v>609287000000</v>
-      </c>
-      <c r="T4" s="1008">
-        <v>672960000000</v>
-      </c>
-      <c r="U4" s="1010">
-        <v>693001000000</v>
-      </c>
-      <c r="V4" s="1012">
-        <v>725757000000</v>
-      </c>
-      <c r="W4" s="1014">
-        <v>709314000000</v>
-      </c>
-      <c r="X4" s="1015">
-        <v>715115000000</v>
+      <c r="B4" s="1270" t="n">
+        <v>2.86958E11</v>
+      </c>
+      <c r="C4" s="1272" t="n">
+        <v>3.1654E11</v>
+      </c>
+      <c r="D4" s="1274" t="n">
+        <v>3.55378E11</v>
+      </c>
+      <c r="E4" s="1276" t="n">
+        <v>4.33024E11</v>
+      </c>
+      <c r="F4" s="1278" t="n">
+        <v>4.56052E11</v>
+      </c>
+      <c r="G4" s="1280" t="n">
+        <v>5.02476E11</v>
+      </c>
+      <c r="H4" s="1282" t="n">
+        <v>5.36272E11</v>
+      </c>
+      <c r="I4" s="1284" t="n">
+        <v>6.03872E11</v>
+      </c>
+      <c r="J4" s="1286" t="n">
+        <v>6.69279E11</v>
+      </c>
+      <c r="K4" s="1288" t="n">
+        <v>6.65861E11</v>
+      </c>
+      <c r="L4" s="1290" t="n">
+        <v>6.91791E11</v>
+      </c>
+      <c r="M4" s="1292" t="n">
+        <v>6.89092E11</v>
+      </c>
+      <c r="N4" s="1294" t="n">
+        <v>6.52288E11</v>
+      </c>
+      <c r="O4" s="1296" t="n">
+        <v>5.85393E11</v>
+      </c>
+      <c r="P4" s="1298" t="n">
+        <v>5.81188E11</v>
+      </c>
+      <c r="Q4" s="1300" t="n">
+        <v>5.65403E11</v>
+      </c>
+      <c r="R4" s="1302" t="n">
+        <v>5.87978E11</v>
+      </c>
+      <c r="S4" s="1304" t="n">
+        <v>6.09287E11</v>
+      </c>
+      <c r="T4" s="1306" t="n">
+        <v>6.7296E11</v>
+      </c>
+      <c r="U4" s="1308" t="n">
+        <v>6.93001E11</v>
+      </c>
+      <c r="V4" s="1310" t="n">
+        <v>7.25757E11</v>
+      </c>
+      <c r="W4" s="1312" t="n">
+        <v>7.09314E11</v>
+      </c>
+      <c r="X4" s="1313" t="n">
+        <v>7.15115E11</v>
       </c>
     </row>
     <row r="5" spans="1:26">

--- a/Output/DoD_Acq_Trends_Contracts.xlsx
+++ b/Output/DoD_Acq_Trends_Contracts.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="TOA" r:id="rId3" sheetId="1"/>
+    <sheet name="Platform Portfolio" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="53">
   <si>
     <t>source</t>
   </si>
@@ -137,6 +138,42 @@
   <si>
     <t>Unlabeled</t>
   </si>
+  <si>
+    <t>PlatformPortfolio</t>
+  </si>
+  <si>
+    <t>Aircraft</t>
+  </si>
+  <si>
+    <t>Electronics, Comms, &amp; Sensors</t>
+  </si>
+  <si>
+    <t>Facilities and Construction</t>
+  </si>
+  <si>
+    <t>Land Vehicles</t>
+  </si>
+  <si>
+    <t>Missile Defense</t>
+  </si>
+  <si>
+    <t>Ordnance and Missiles</t>
+  </si>
+  <si>
+    <t>Other Products</t>
+  </si>
+  <si>
+    <t>Other R&amp;D and Knowledge Based</t>
+  </si>
+  <si>
+    <t>Other Services</t>
+  </si>
+  <si>
+    <t>Ships &amp; Submarines</t>
+  </si>
+  <si>
+    <t>Space Systems</t>
+  </si>
 </sst>
 </file>
 
@@ -197,7 +234,7 @@
       <alignment wrapText="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="411">
+  <cellXfs count="2087">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2"/>
@@ -1189,6 +1226,5034 @@
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
       <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
@@ -1906,4 +6971,1310 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A15:AG27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="15">
+      <c r="A15" t="s" s="1668">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s" s="1669">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s" s="1670">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s" s="1671">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s" s="1672">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s" s="1673">
+        <v>31</v>
+      </c>
+      <c r="G15" t="s" s="1674">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s" s="1675">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s" s="1676">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s" s="1677">
+        <v>35</v>
+      </c>
+      <c r="K15" t="s" s="1678">
+        <v>36</v>
+      </c>
+      <c r="L15" t="s" s="1679">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s" s="1680">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s" s="1681">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s" s="1682">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s" s="1683">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s" s="1684">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s" s="1685">
+        <v>7</v>
+      </c>
+      <c r="S15" t="s" s="1686">
+        <v>8</v>
+      </c>
+      <c r="T15" t="s" s="1687">
+        <v>9</v>
+      </c>
+      <c r="U15" t="s" s="1688">
+        <v>10</v>
+      </c>
+      <c r="V15" t="s" s="1689">
+        <v>11</v>
+      </c>
+      <c r="W15" t="s" s="1690">
+        <v>12</v>
+      </c>
+      <c r="X15" t="s" s="1691">
+        <v>13</v>
+      </c>
+      <c r="Y15" t="s" s="1692">
+        <v>14</v>
+      </c>
+      <c r="Z15" t="s" s="1693">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="s" s="1694">
+        <v>16</v>
+      </c>
+      <c r="AB15" t="s" s="1695">
+        <v>17</v>
+      </c>
+      <c r="AC15" t="s" s="1696">
+        <v>18</v>
+      </c>
+      <c r="AD15" t="s" s="1697">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="s" s="1698">
+        <v>20</v>
+      </c>
+      <c r="AF15" t="s" s="1699">
+        <v>21</v>
+      </c>
+      <c r="AG15" t="s" s="1700">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="1701">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n" s="1713">
+        <v>3.0658740148E10</v>
+      </c>
+      <c r="C16" t="n" s="1725">
+        <v>3.0121880965E10</v>
+      </c>
+      <c r="D16" t="n" s="1736">
+        <v>2.974003174E10</v>
+      </c>
+      <c r="E16" t="n" s="1747">
+        <v>2.9152263421E10</v>
+      </c>
+      <c r="F16" t="n" s="1758">
+        <v>3.0179401766E10</v>
+      </c>
+      <c r="G16" t="n" s="1769">
+        <v>2.6340609056E10</v>
+      </c>
+      <c r="H16" t="n" s="1780">
+        <v>2.827267691E10</v>
+      </c>
+      <c r="I16" t="n" s="1791">
+        <v>2.4101563481E10</v>
+      </c>
+      <c r="J16" t="n" s="1802">
+        <v>2.5666245468E10</v>
+      </c>
+      <c r="K16" t="n" s="1813">
+        <v>2.7060743376E10</v>
+      </c>
+      <c r="L16" t="n" s="1824">
+        <v>3.531419415453E10</v>
+      </c>
+      <c r="M16" t="n" s="1836">
+        <v>3.59074452339394E10</v>
+      </c>
+      <c r="N16" t="n" s="1848">
+        <v>3.87862499431662E10</v>
+      </c>
+      <c r="O16" t="n" s="1860">
+        <v>4.87109584634567E10</v>
+      </c>
+      <c r="P16" t="n" s="1872">
+        <v>4.77961740629781E10</v>
+      </c>
+      <c r="Q16" t="n" s="1884">
+        <v>4.72743962968926E10</v>
+      </c>
+      <c r="R16" t="n" s="1896">
+        <v>5.39735787523784E10</v>
+      </c>
+      <c r="S16" t="n" s="1908">
+        <v>6.03933852070607E10</v>
+      </c>
+      <c r="T16" t="n" s="1920">
+        <v>6.6665379210577E10</v>
+      </c>
+      <c r="U16" t="n" s="1932">
+        <v>6.5813783029775E10</v>
+      </c>
+      <c r="V16" t="n" s="1944">
+        <v>6.34755737833386E10</v>
+      </c>
+      <c r="W16" t="n" s="1956">
+        <v>7.02608882284295E10</v>
+      </c>
+      <c r="X16" t="n" s="1968">
+        <v>7.81210164803626E10</v>
+      </c>
+      <c r="Y16" t="n" s="1980">
+        <v>7.3221269435559E10</v>
+      </c>
+      <c r="Z16" t="n" s="1992">
+        <v>5.81834553991064E10</v>
+      </c>
+      <c r="AA16" t="n" s="2003">
+        <v>6.1704733773486E10</v>
+      </c>
+      <c r="AB16" t="n" s="2015">
+        <v>7.54540512080051E10</v>
+      </c>
+      <c r="AC16" t="n" s="2027">
+        <v>8.60779291158004E10</v>
+      </c>
+      <c r="AD16" t="n" s="2039">
+        <v>8.33400099341652E10</v>
+      </c>
+      <c r="AE16" t="n" s="2051">
+        <v>9.00314633676939E10</v>
+      </c>
+      <c r="AF16" t="n" s="2063">
+        <v>1.05015442568178E11</v>
+      </c>
+      <c r="AG16" t="n" s="2075">
+        <v>7.46219598376679E10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="1702">
+        <v>43</v>
+      </c>
+      <c r="B17" t="n" s="1714">
+        <v>1.9981551894E10</v>
+      </c>
+      <c r="C17" t="n" s="1726">
+        <v>1.9674439023E10</v>
+      </c>
+      <c r="D17" t="n" s="1737">
+        <v>1.9947757025E10</v>
+      </c>
+      <c r="E17" t="n" s="1748">
+        <v>1.8965304703E10</v>
+      </c>
+      <c r="F17" t="n" s="1759">
+        <v>1.7971243246E10</v>
+      </c>
+      <c r="G17" t="n" s="1770">
+        <v>1.9118946831E10</v>
+      </c>
+      <c r="H17" t="n" s="1781">
+        <v>1.867821377E10</v>
+      </c>
+      <c r="I17" t="n" s="1792">
+        <v>1.9180367251E10</v>
+      </c>
+      <c r="J17" t="n" s="1803">
+        <v>1.8260047176E10</v>
+      </c>
+      <c r="K17" t="n" s="1814">
+        <v>1.9958749915E10</v>
+      </c>
+      <c r="L17" t="n" s="1825">
+        <v>2.07217874338069E10</v>
+      </c>
+      <c r="M17" t="n" s="1837">
+        <v>2.24013496200158E10</v>
+      </c>
+      <c r="N17" t="n" s="1849">
+        <v>2.58586979608764E10</v>
+      </c>
+      <c r="O17" t="n" s="1861">
+        <v>3.17141287165554E10</v>
+      </c>
+      <c r="P17" t="n" s="1873">
+        <v>3.7156454367588E10</v>
+      </c>
+      <c r="Q17" t="n" s="1885">
+        <v>4.19992665484242E10</v>
+      </c>
+      <c r="R17" t="n" s="1897">
+        <v>4.49968328037504E10</v>
+      </c>
+      <c r="S17" t="n" s="1909">
+        <v>5.24173908568278E10</v>
+      </c>
+      <c r="T17" t="n" s="1921">
+        <v>5.69090985429826E10</v>
+      </c>
+      <c r="U17" t="n" s="1933">
+        <v>5.52443161116502E10</v>
+      </c>
+      <c r="V17" t="n" s="1945">
+        <v>5.61192146986032E10</v>
+      </c>
+      <c r="W17" t="n" s="1957">
+        <v>5.23384128409606E10</v>
+      </c>
+      <c r="X17" t="n" s="1969">
+        <v>4.94742330978886E10</v>
+      </c>
+      <c r="Y17" t="n" s="1981">
+        <v>4.09966444693473E10</v>
+      </c>
+      <c r="Z17" t="n" s="1993">
+        <v>4.07228531606836E10</v>
+      </c>
+      <c r="AA17" t="n" s="2004">
+        <v>3.94655663735382E10</v>
+      </c>
+      <c r="AB17" t="n" s="2016">
+        <v>4.33451284784298E10</v>
+      </c>
+      <c r="AC17" t="n" s="2028">
+        <v>4.56049884633185E10</v>
+      </c>
+      <c r="AD17" t="n" s="2040">
+        <v>5.09658814269245E10</v>
+      </c>
+      <c r="AE17" t="n" s="2052">
+        <v>5.48755380878463E10</v>
+      </c>
+      <c r="AF17" t="n" s="2064">
+        <v>5.51198211067526E10</v>
+      </c>
+      <c r="AG17" t="n" s="2076">
+        <v>4.95859676366389E10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="1703">
+        <v>44</v>
+      </c>
+      <c r="B18" t="n" s="1715">
+        <v>1.2183919305E10</v>
+      </c>
+      <c r="C18" t="n" s="1727">
+        <v>1.8493514868E10</v>
+      </c>
+      <c r="D18" t="n" s="1738">
+        <v>1.7658228389E10</v>
+      </c>
+      <c r="E18" t="n" s="1749">
+        <v>1.7180949094E10</v>
+      </c>
+      <c r="F18" t="n" s="1760">
+        <v>2.0333048736E10</v>
+      </c>
+      <c r="G18" t="n" s="1771">
+        <v>2.0139685026E10</v>
+      </c>
+      <c r="H18" t="n" s="1782">
+        <v>2.0283799348E10</v>
+      </c>
+      <c r="I18" t="n" s="1793">
+        <v>2.0230217272E10</v>
+      </c>
+      <c r="J18" t="n" s="1804">
+        <v>1.9566340131E10</v>
+      </c>
+      <c r="K18" t="n" s="1815">
+        <v>2.060660981E10</v>
+      </c>
+      <c r="L18" t="n" s="1826">
+        <v>2.07869169100744E10</v>
+      </c>
+      <c r="M18" t="n" s="1838">
+        <v>2.31073285692593E10</v>
+      </c>
+      <c r="N18" t="n" s="1850">
+        <v>2.60279705872005E10</v>
+      </c>
+      <c r="O18" t="n" s="1862">
+        <v>3.43572741802863E10</v>
+      </c>
+      <c r="P18" t="n" s="1874">
+        <v>3.55735813751197E10</v>
+      </c>
+      <c r="Q18" t="n" s="1886">
+        <v>3.9371547693261E10</v>
+      </c>
+      <c r="R18" t="n" s="1898">
+        <v>4.5477965274852E10</v>
+      </c>
+      <c r="S18" t="n" s="1910">
+        <v>4.60549616698549E10</v>
+      </c>
+      <c r="T18" t="n" s="1922">
+        <v>5.70317887078795E10</v>
+      </c>
+      <c r="U18" t="n" s="1934">
+        <v>6.59681314753321E10</v>
+      </c>
+      <c r="V18" t="n" s="1946">
+        <v>6.10604328058836E10</v>
+      </c>
+      <c r="W18" t="n" s="1958">
+        <v>5.42445907190723E10</v>
+      </c>
+      <c r="X18" t="n" s="1970">
+        <v>4.87066164618429E10</v>
+      </c>
+      <c r="Y18" t="n" s="1982">
+        <v>3.89705094631689E10</v>
+      </c>
+      <c r="Z18" t="n" s="1994">
+        <v>4.20266129149209E10</v>
+      </c>
+      <c r="AA18" t="n" s="2005">
+        <v>3.79276584961633E10</v>
+      </c>
+      <c r="AB18" t="n" s="2017">
+        <v>3.8270469653864E10</v>
+      </c>
+      <c r="AC18" t="n" s="2029">
+        <v>3.82446720050354E10</v>
+      </c>
+      <c r="AD18" t="n" s="2041">
+        <v>4.66784321823118E10</v>
+      </c>
+      <c r="AE18" t="n" s="2053">
+        <v>5.1781973875017E10</v>
+      </c>
+      <c r="AF18" t="n" s="2065">
+        <v>5.97396222570701E10</v>
+      </c>
+      <c r="AG18" t="n" s="2077">
+        <v>5.08546270382238E10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="1704">
+        <v>45</v>
+      </c>
+      <c r="B19" t="n" s="1716">
+        <v>4.275032E9</v>
+      </c>
+      <c r="C19" t="n" s="1728">
+        <v>6.503975889E9</v>
+      </c>
+      <c r="D19" t="n" s="1739">
+        <v>4.16681245E9</v>
+      </c>
+      <c r="E19" t="n" s="1750">
+        <v>4.39636453E9</v>
+      </c>
+      <c r="F19" t="n" s="1761">
+        <v>3.619043411E9</v>
+      </c>
+      <c r="G19" t="n" s="1772">
+        <v>3.098454659E9</v>
+      </c>
+      <c r="H19" t="n" s="1783">
+        <v>3.678250068E9</v>
+      </c>
+      <c r="I19" t="n" s="1794">
+        <v>3.652647546E9</v>
+      </c>
+      <c r="J19" t="n" s="1805">
+        <v>2.804250415E9</v>
+      </c>
+      <c r="K19" t="n" s="1816">
+        <v>3.507393596E9</v>
+      </c>
+      <c r="L19" t="n" s="1827">
+        <v>3.396266974419E9</v>
+      </c>
+      <c r="M19" t="n" s="1839">
+        <v>3.2978062362578E9</v>
+      </c>
+      <c r="N19" t="n" s="1851">
+        <v>4.7847578393472E9</v>
+      </c>
+      <c r="O19" t="n" s="1863">
+        <v>9.639949222434E9</v>
+      </c>
+      <c r="P19" t="n" s="1875">
+        <v>8.5449501499358E9</v>
+      </c>
+      <c r="Q19" t="n" s="1887">
+        <v>1.5283465395794E10</v>
+      </c>
+      <c r="R19" t="n" s="1899">
+        <v>1.61290039142991E10</v>
+      </c>
+      <c r="S19" t="n" s="1911">
+        <v>2.81958713019019E10</v>
+      </c>
+      <c r="T19" t="n" s="1923">
+        <v>3.97176402972569E10</v>
+      </c>
+      <c r="U19" t="n" s="1935">
+        <v>2.88292011241596E10</v>
+      </c>
+      <c r="V19" t="n" s="1947">
+        <v>2.53317736193051E10</v>
+      </c>
+      <c r="W19" t="n" s="1959">
+        <v>1.95704954800868E10</v>
+      </c>
+      <c r="X19" t="n" s="1971">
+        <v>1.08288889784807E10</v>
+      </c>
+      <c r="Y19" t="n" s="1983">
+        <v>7.4279675695787E9</v>
+      </c>
+      <c r="Z19" t="n" s="1995">
+        <v>5.8252031351328E9</v>
+      </c>
+      <c r="AA19" t="n" s="2006">
+        <v>7.4980157613031E9</v>
+      </c>
+      <c r="AB19" t="n" s="2018">
+        <v>7.3525977315422E9</v>
+      </c>
+      <c r="AC19" t="n" s="2030">
+        <v>8.2573729717592E9</v>
+      </c>
+      <c r="AD19" t="n" s="2042">
+        <v>1.26891206479156E10</v>
+      </c>
+      <c r="AE19" t="n" s="2054">
+        <v>1.3047628919063E10</v>
+      </c>
+      <c r="AF19" t="n" s="2066">
+        <v>1.18272033025032E10</v>
+      </c>
+      <c r="AG19" t="n" s="2078">
+        <v>9.8430355737026E9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="1705">
+        <v>46</v>
+      </c>
+      <c r="B20" t="n" s="1717">
+        <v>1.231179E9</v>
+      </c>
+      <c r="C20" t="n" s="1729">
+        <v>1.941934283E9</v>
+      </c>
+      <c r="D20" t="n" s="1740">
+        <v>1.22454067E9</v>
+      </c>
+      <c r="E20" t="n" s="1751">
+        <v>1.564679313E9</v>
+      </c>
+      <c r="F20" t="n" s="1762">
+        <v>1.616903095E9</v>
+      </c>
+      <c r="G20" t="n" s="1773">
+        <v>1.604870875E9</v>
+      </c>
+      <c r="H20" t="n" s="1784">
+        <v>1.638142428E9</v>
+      </c>
+      <c r="I20" t="n" s="1795">
+        <v>1.687796806E9</v>
+      </c>
+      <c r="J20" t="n" s="1806">
+        <v>1.367337447E9</v>
+      </c>
+      <c r="K20" t="n" s="1817">
+        <v>1.354383546E9</v>
+      </c>
+      <c r="L20" t="n" s="1828">
+        <v>9.55629335E8</v>
+      </c>
+      <c r="M20" t="n" s="1840">
+        <v>1.9346134243999E9</v>
+      </c>
+      <c r="N20" t="n" s="1852">
+        <v>3.6188503838281E9</v>
+      </c>
+      <c r="O20" t="n" s="1864">
+        <v>4.0049090750938E9</v>
+      </c>
+      <c r="P20" t="n" s="1876">
+        <v>5.950319551586E9</v>
+      </c>
+      <c r="Q20" t="n" s="1888">
+        <v>6.4829210451563E9</v>
+      </c>
+      <c r="R20" t="n" s="1900">
+        <v>6.7507723073287E9</v>
+      </c>
+      <c r="S20" t="n" s="1912">
+        <v>8.3133665522319E9</v>
+      </c>
+      <c r="T20" t="n" s="1924">
+        <v>8.7617202198506E9</v>
+      </c>
+      <c r="U20" t="n" s="1936">
+        <v>1.05011175090155E10</v>
+      </c>
+      <c r="V20" t="n" s="1948">
+        <v>1.05566546465502E10</v>
+      </c>
+      <c r="W20" t="n" s="1960">
+        <v>1.0915898236344099E10</v>
+      </c>
+      <c r="X20" t="n" s="1972">
+        <v>1.12074213989962E10</v>
+      </c>
+      <c r="Y20" t="n" s="1984">
+        <v>1.08084901841624E10</v>
+      </c>
+      <c r="Z20" t="n" s="1996">
+        <v>8.5164849913941E9</v>
+      </c>
+      <c r="AA20" t="n" s="2007">
+        <v>9.3500355865754E9</v>
+      </c>
+      <c r="AB20" t="n" s="2019">
+        <v>9.6979561141627E9</v>
+      </c>
+      <c r="AC20" t="n" s="2031">
+        <v>8.3446495441172E9</v>
+      </c>
+      <c r="AD20" t="n" s="2043">
+        <v>1.33177632921554E10</v>
+      </c>
+      <c r="AE20" t="n" s="2055">
+        <v>1.11325097823224E10</v>
+      </c>
+      <c r="AF20" t="n" s="2067">
+        <v>1.46152766805847E10</v>
+      </c>
+      <c r="AG20" t="n" s="2079">
+        <v>1.0591003242401701E10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="1706">
+        <v>47</v>
+      </c>
+      <c r="B21" t="n" s="1718">
+        <v>1.3135433E10</v>
+      </c>
+      <c r="C21" t="n" s="1730">
+        <v>1.8098161775E10</v>
+      </c>
+      <c r="D21" t="n" s="1741">
+        <v>1.6158568935E10</v>
+      </c>
+      <c r="E21" t="n" s="1752">
+        <v>1.4602109743E10</v>
+      </c>
+      <c r="F21" t="n" s="1763">
+        <v>1.1205407921E10</v>
+      </c>
+      <c r="G21" t="n" s="1774">
+        <v>1.0425145325E10</v>
+      </c>
+      <c r="H21" t="n" s="1785">
+        <v>1.08949236E10</v>
+      </c>
+      <c r="I21" t="n" s="1796">
+        <v>1.035723047E10</v>
+      </c>
+      <c r="J21" t="n" s="1807">
+        <v>1.0866199959E10</v>
+      </c>
+      <c r="K21" t="n" s="1818">
+        <v>1.147297724E10</v>
+      </c>
+      <c r="L21" t="n" s="1829">
+        <v>1.0726812018275E10</v>
+      </c>
+      <c r="M21" t="n" s="1841">
+        <v>1.05509043893983E10</v>
+      </c>
+      <c r="N21" t="n" s="1853">
+        <v>1.34722198003593E10</v>
+      </c>
+      <c r="O21" t="n" s="1865">
+        <v>1.45863372310499E10</v>
+      </c>
+      <c r="P21" t="n" s="1877">
+        <v>1.41343084541602E10</v>
+      </c>
+      <c r="Q21" t="n" s="1889">
+        <v>1.48490171651777E10</v>
+      </c>
+      <c r="R21" t="n" s="1901">
+        <v>1.50380500012582E10</v>
+      </c>
+      <c r="S21" t="n" s="1913">
+        <v>1.79408065665707E10</v>
+      </c>
+      <c r="T21" t="n" s="1925">
+        <v>1.92055330055383E10</v>
+      </c>
+      <c r="U21" t="n" s="1937">
+        <v>1.79145533337808E10</v>
+      </c>
+      <c r="V21" t="n" s="1949">
+        <v>1.66728977032213E10</v>
+      </c>
+      <c r="W21" t="n" s="1961">
+        <v>1.54205546893102E10</v>
+      </c>
+      <c r="X21" t="n" s="1973">
+        <v>1.56799341779548E10</v>
+      </c>
+      <c r="Y21" t="n" s="1985">
+        <v>1.30400595998247E10</v>
+      </c>
+      <c r="Z21" t="n" s="1997">
+        <v>1.25780760164523E10</v>
+      </c>
+      <c r="AA21" t="n" s="2008">
+        <v>1.32542073523246E10</v>
+      </c>
+      <c r="AB21" t="n" s="2020">
+        <v>1.6481687127785799E10</v>
+      </c>
+      <c r="AC21" t="n" s="2032">
+        <v>1.80521746835428E10</v>
+      </c>
+      <c r="AD21" t="n" s="2044">
+        <v>2.17062565013037E10</v>
+      </c>
+      <c r="AE21" t="n" s="2056">
+        <v>2.67120387839905E10</v>
+      </c>
+      <c r="AF21" t="n" s="2068">
+        <v>2.84535485608107E10</v>
+      </c>
+      <c r="AG21" t="n" s="2080">
+        <v>2.32326359699073E10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="1707">
+        <v>48</v>
+      </c>
+      <c r="B22" t="n" s="1719">
+        <v>1.0893531E10</v>
+      </c>
+      <c r="C22" t="n" s="1731">
+        <v>1.3666586115E10</v>
+      </c>
+      <c r="D22" t="n" s="1742">
+        <v>9.671001791E9</v>
+      </c>
+      <c r="E22" t="n" s="1753">
+        <v>1.0550368583E10</v>
+      </c>
+      <c r="F22" t="n" s="1764">
+        <v>8.625703645E9</v>
+      </c>
+      <c r="G22" t="n" s="1775">
+        <v>8.564693193E9</v>
+      </c>
+      <c r="H22" t="n" s="1786">
+        <v>9.626845429E9</v>
+      </c>
+      <c r="I22" t="n" s="1797">
+        <v>9.689825022E9</v>
+      </c>
+      <c r="J22" t="n" s="1808">
+        <v>8.560246161E9</v>
+      </c>
+      <c r="K22" t="n" s="1819">
+        <v>7.673714576E9</v>
+      </c>
+      <c r="L22" t="n" s="1830">
+        <v>8.63963177809E9</v>
+      </c>
+      <c r="M22" t="n" s="1842">
+        <v>1.0228232817E10</v>
+      </c>
+      <c r="N22" t="n" s="1854">
+        <v>1.34009971032415E10</v>
+      </c>
+      <c r="O22" t="n" s="1866">
+        <v>1.55424474284263E10</v>
+      </c>
+      <c r="P22" t="n" s="1878">
+        <v>1.83162200283947E10</v>
+      </c>
+      <c r="Q22" t="n" s="1890">
+        <v>3.18316487735399E10</v>
+      </c>
+      <c r="R22" t="n" s="1902">
+        <v>3.46352263812251E10</v>
+      </c>
+      <c r="S22" t="n" s="1914">
+        <v>3.42836328886748E10</v>
+      </c>
+      <c r="T22" t="n" s="1926">
+        <v>3.91017218036713E10</v>
+      </c>
+      <c r="U22" t="n" s="1938">
+        <v>3.55888066446735E10</v>
+      </c>
+      <c r="V22" t="n" s="1950">
+        <v>2.91145892595554E10</v>
+      </c>
+      <c r="W22" t="n" s="1962">
+        <v>3.00067859051202E10</v>
+      </c>
+      <c r="X22" t="n" s="1974">
+        <v>3.53577971883427E10</v>
+      </c>
+      <c r="Y22" t="n" s="1986">
+        <v>2.6463531578395298E10</v>
+      </c>
+      <c r="Z22" t="n" s="1998">
+        <v>2.42681129476681E10</v>
+      </c>
+      <c r="AA22" t="n" s="2009">
+        <v>2.10691107919282E10</v>
+      </c>
+      <c r="AB22" t="n" s="2021">
+        <v>1.94062496638794E10</v>
+      </c>
+      <c r="AC22" t="n" s="2033">
+        <v>2.15763895346158E10</v>
+      </c>
+      <c r="AD22" t="n" s="2045">
+        <v>2.53833980932805E10</v>
+      </c>
+      <c r="AE22" t="n" s="2057">
+        <v>2.32126313813324E10</v>
+      </c>
+      <c r="AF22" t="n" s="2069">
+        <v>2.55188327145178E10</v>
+      </c>
+      <c r="AG22" t="n" s="2081">
+        <v>5.34948626407215E10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="1708">
+        <v>49</v>
+      </c>
+      <c r="B23" t="n" s="1720">
+        <v>7.810320381E9</v>
+      </c>
+      <c r="C23" t="n" s="1732">
+        <v>7.958593229E9</v>
+      </c>
+      <c r="D23" t="n" s="1743">
+        <v>8.819916126E9</v>
+      </c>
+      <c r="E23" t="n" s="1754">
+        <v>8.606331079E9</v>
+      </c>
+      <c r="F23" t="n" s="1765">
+        <v>8.502759117E9</v>
+      </c>
+      <c r="G23" t="n" s="1776">
+        <v>8.922414465E9</v>
+      </c>
+      <c r="H23" t="n" s="1787">
+        <v>9.372992103E9</v>
+      </c>
+      <c r="I23" t="n" s="1798">
+        <v>9.768696174E9</v>
+      </c>
+      <c r="J23" t="n" s="1809">
+        <v>1.0885739654E10</v>
+      </c>
+      <c r="K23" t="n" s="1820">
+        <v>1.1378756963E10</v>
+      </c>
+      <c r="L23" t="n" s="1831">
+        <v>1.25453234490637E10</v>
+      </c>
+      <c r="M23" t="n" s="1843">
+        <v>1.25483195549022E10</v>
+      </c>
+      <c r="N23" t="n" s="1855">
+        <v>1.60069568081511E10</v>
+      </c>
+      <c r="O23" t="n" s="1867">
+        <v>1.89129165582682E10</v>
+      </c>
+      <c r="P23" t="n" s="1879">
+        <v>2.10679439429484E10</v>
+      </c>
+      <c r="Q23" t="n" s="1891">
+        <v>2.57734477241759E10</v>
+      </c>
+      <c r="R23" t="n" s="1903">
+        <v>2.90303759741737E10</v>
+      </c>
+      <c r="S23" t="n" s="1915">
+        <v>3.05328998466231E10</v>
+      </c>
+      <c r="T23" t="n" s="1927">
+        <v>3.40165791992551E10</v>
+      </c>
+      <c r="U23" t="n" s="1939">
+        <v>3.87420463532673E10</v>
+      </c>
+      <c r="V23" t="n" s="1951">
+        <v>4.0169762385106804E10</v>
+      </c>
+      <c r="W23" t="n" s="1963">
+        <v>3.99370219166413E10</v>
+      </c>
+      <c r="X23" t="n" s="1975">
+        <v>4.02626124832203E10</v>
+      </c>
+      <c r="Y23" t="n" s="1987">
+        <v>3.40563017619195E10</v>
+      </c>
+      <c r="Z23" t="n" s="1999">
+        <v>3.35955222758293E10</v>
+      </c>
+      <c r="AA23" t="n" s="2010">
+        <v>3.32681574087611E10</v>
+      </c>
+      <c r="AB23" t="n" s="2022">
+        <v>3.34714719645156E10</v>
+      </c>
+      <c r="AC23" t="n" s="2034">
+        <v>3.47582660856039E10</v>
+      </c>
+      <c r="AD23" t="n" s="2046">
+        <v>3.87051594933714E10</v>
+      </c>
+      <c r="AE23" t="n" s="2058">
+        <v>4.26253213917893E10</v>
+      </c>
+      <c r="AF23" t="n" s="2070">
+        <v>4.42717613207049E10</v>
+      </c>
+      <c r="AG23" t="n" s="2082">
+        <v>4.32009245570044E10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="1709">
+        <v>50</v>
+      </c>
+      <c r="B24" t="n" s="1721">
+        <v>4.385190184E9</v>
+      </c>
+      <c r="C24" t="n" s="1733">
+        <v>5.641814985E9</v>
+      </c>
+      <c r="D24" t="n" s="1744">
+        <v>4.211344274E9</v>
+      </c>
+      <c r="E24" t="n" s="1755">
+        <v>3.07582356E9</v>
+      </c>
+      <c r="F24" t="n" s="1766">
+        <v>4.014703413E9</v>
+      </c>
+      <c r="G24" t="n" s="1777">
+        <v>5.272937433E9</v>
+      </c>
+      <c r="H24" t="n" s="1788">
+        <v>5.083168952E9</v>
+      </c>
+      <c r="I24" t="n" s="1799">
+        <v>5.793220616E9</v>
+      </c>
+      <c r="J24" t="n" s="1810">
+        <v>6.068760797E9</v>
+      </c>
+      <c r="K24" t="n" s="1821">
+        <v>7.339018466E9</v>
+      </c>
+      <c r="L24" t="n" s="1832">
+        <v>6.5062670131198E9</v>
+      </c>
+      <c r="M24" t="n" s="1844">
+        <v>7.4204186248457E9</v>
+      </c>
+      <c r="N24" t="n" s="1856">
+        <v>1.05430632654787E10</v>
+      </c>
+      <c r="O24" t="n" s="1868">
+        <v>1.61052289406387E10</v>
+      </c>
+      <c r="P24" t="n" s="1880">
+        <v>2.01097807880342E10</v>
+      </c>
+      <c r="Q24" t="n" s="1892">
+        <v>2.22128028383628E10</v>
+      </c>
+      <c r="R24" t="n" s="1904">
+        <v>2.42386883261944E10</v>
+      </c>
+      <c r="S24" t="n" s="1916">
+        <v>2.44947255234546E10</v>
+      </c>
+      <c r="T24" t="n" s="1928">
+        <v>2.74672587353125E10</v>
+      </c>
+      <c r="U24" t="n" s="1940">
+        <v>3.07235750342101E10</v>
+      </c>
+      <c r="V24" t="n" s="1952">
+        <v>3.30275844262976E10</v>
+      </c>
+      <c r="W24" t="n" s="1964">
+        <v>3.67916923913012E10</v>
+      </c>
+      <c r="X24" t="n" s="1976">
+        <v>3.3863626494884E10</v>
+      </c>
+      <c r="Y24" t="n" s="1988">
+        <v>3.06549478476359E10</v>
+      </c>
+      <c r="Z24" t="n" s="2000">
+        <v>2.56571285632907E10</v>
+      </c>
+      <c r="AA24" t="n" s="2011">
+        <v>2.29538637927188E10</v>
+      </c>
+      <c r="AB24" t="n" s="2023">
+        <v>2.38188017378035E10</v>
+      </c>
+      <c r="AC24" t="n" s="2035">
+        <v>2.62072980211504E10</v>
+      </c>
+      <c r="AD24" t="n" s="2047">
+        <v>2.85915788868726E10</v>
+      </c>
+      <c r="AE24" t="n" s="2059">
+        <v>2.96075837041814E10</v>
+      </c>
+      <c r="AF24" t="n" s="2071">
+        <v>2.94819682267418E10</v>
+      </c>
+      <c r="AG24" t="n" s="2083">
+        <v>2.88197687165794E10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="1710">
+        <v>51</v>
+      </c>
+      <c r="B25" t="n" s="1722">
+        <v>1.0685914493E10</v>
+      </c>
+      <c r="C25" t="n" s="1734">
+        <v>9.517251712E9</v>
+      </c>
+      <c r="D25" t="n" s="1745">
+        <v>8.601403143E9</v>
+      </c>
+      <c r="E25" t="n" s="1756">
+        <v>9.50329185E9</v>
+      </c>
+      <c r="F25" t="n" s="1767">
+        <v>7.389060646E9</v>
+      </c>
+      <c r="G25" t="n" s="1778">
+        <v>9.654945185E9</v>
+      </c>
+      <c r="H25" t="n" s="1789">
+        <v>7.969628348E9</v>
+      </c>
+      <c r="I25" t="n" s="1800">
+        <v>8.340521642E9</v>
+      </c>
+      <c r="J25" t="n" s="1811">
+        <v>9.369233233E9</v>
+      </c>
+      <c r="K25" t="n" s="1822">
+        <v>8.322448862E9</v>
+      </c>
+      <c r="L25" t="n" s="1833">
+        <v>9.355891763E9</v>
+      </c>
+      <c r="M25" t="n" s="1845">
+        <v>1.2404294499E10</v>
+      </c>
+      <c r="N25" t="n" s="1857">
+        <v>1.26956489139302E10</v>
+      </c>
+      <c r="O25" t="n" s="1869">
+        <v>1.26732934870506E10</v>
+      </c>
+      <c r="P25" t="n" s="1881">
+        <v>1.48422217071636E10</v>
+      </c>
+      <c r="Q25" t="n" s="1893">
+        <v>1.40387555341306E10</v>
+      </c>
+      <c r="R25" t="n" s="1905">
+        <v>1.68196367784898E10</v>
+      </c>
+      <c r="S25" t="n" s="1917">
+        <v>1.72523011470864E10</v>
+      </c>
+      <c r="T25" t="n" s="1929">
+        <v>1.93530760690697E10</v>
+      </c>
+      <c r="U25" t="n" s="1941">
+        <v>2.15014617376141E10</v>
+      </c>
+      <c r="V25" t="n" s="1953">
+        <v>1.75611814853883E10</v>
+      </c>
+      <c r="W25" t="n" s="1965">
+        <v>2.83895712635333E10</v>
+      </c>
+      <c r="X25" t="n" s="1977">
+        <v>2.38235175359178E10</v>
+      </c>
+      <c r="Y25" t="n" s="1989">
+        <v>2.30512785272609E10</v>
+      </c>
+      <c r="Z25" t="n" s="2001">
+        <v>2.38274263730695E10</v>
+      </c>
+      <c r="AA25" t="n" s="2012">
+        <v>2.14782252159184E10</v>
+      </c>
+      <c r="AB25" t="n" s="2024">
+        <v>2.46526592237647E10</v>
+      </c>
+      <c r="AC25" t="n" s="2036">
+        <v>2.72077623311003E10</v>
+      </c>
+      <c r="AD25" t="n" s="2048">
+        <v>3.13097300865279E10</v>
+      </c>
+      <c r="AE25" t="n" s="2060">
+        <v>3.3305801657137E10</v>
+      </c>
+      <c r="AF25" t="n" s="2072">
+        <v>4.00222173286757E10</v>
+      </c>
+      <c r="AG25" t="n" s="2084">
+        <v>3.35342753466497E10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="1711">
+        <v>52</v>
+      </c>
+      <c r="B26" t="n" s="1723">
+        <v>5.109318E9</v>
+      </c>
+      <c r="C26" t="n" s="1735">
+        <v>4.536041E9</v>
+      </c>
+      <c r="D26" t="n" s="1746">
+        <v>3.207056007E9</v>
+      </c>
+      <c r="E26" t="n" s="1757">
+        <v>3.775896266E9</v>
+      </c>
+      <c r="F26" t="n" s="1768">
+        <v>3.704627729E9</v>
+      </c>
+      <c r="G26" t="n" s="1779">
+        <v>3.44931282E9</v>
+      </c>
+      <c r="H26" t="n" s="1790">
+        <v>2.950138142E9</v>
+      </c>
+      <c r="I26" t="n" s="1801">
+        <v>3.180065599E9</v>
+      </c>
+      <c r="J26" t="n" s="1812">
+        <v>3.551481726E9</v>
+      </c>
+      <c r="K26" t="n" s="1823">
+        <v>3.510240138E9</v>
+      </c>
+      <c r="L26" t="n" s="1834">
+        <v>3.182752124E9</v>
+      </c>
+      <c r="M26" t="n" s="1846">
+        <v>4.154315713E9</v>
+      </c>
+      <c r="N26" t="n" s="1858">
+        <v>4.479525528E9</v>
+      </c>
+      <c r="O26" t="n" s="1870">
+        <v>5.2081729096601E9</v>
+      </c>
+      <c r="P26" t="n" s="1882">
+        <v>6.1266781431602E9</v>
+      </c>
+      <c r="Q26" t="n" s="1894">
+        <v>6.3834502492656E9</v>
+      </c>
+      <c r="R26" t="n" s="1906">
+        <v>7.8836840895679E9</v>
+      </c>
+      <c r="S26" t="n" s="1918">
+        <v>8.0692382412337E9</v>
+      </c>
+      <c r="T26" t="n" s="1930">
+        <v>9.4248184553168E9</v>
+      </c>
+      <c r="U26" t="n" s="1942">
+        <v>1.02542316994654E10</v>
+      </c>
+      <c r="V26" t="n" s="1954">
+        <v>9.0893674073932E9</v>
+      </c>
+      <c r="W26" t="n" s="1966">
+        <v>1.02984017100025E10</v>
+      </c>
+      <c r="X26" t="n" s="1978">
+        <v>9.9493303764938E9</v>
+      </c>
+      <c r="Y26" t="n" s="1990">
+        <v>7.5711796693494E9</v>
+      </c>
+      <c r="Z26" t="n" s="2002">
+        <v>7.8494855338651E9</v>
+      </c>
+      <c r="AA26" t="n" s="2013">
+        <v>5.9630625194985E9</v>
+      </c>
+      <c r="AB26" t="n" s="2025">
+        <v>6.0758657142822E9</v>
+      </c>
+      <c r="AC26" t="n" s="2037">
+        <v>6.0505783787743E9</v>
+      </c>
+      <c r="AD26" t="n" s="2049">
+        <v>5.9456746101526E9</v>
+      </c>
+      <c r="AE26" t="n" s="2061">
+        <v>7.2191571451359005E9</v>
+      </c>
+      <c r="AF26" t="n" s="2073">
+        <v>7.2416406229167E9</v>
+      </c>
+      <c r="AG26" t="n" s="2085">
+        <v>8.733699341421999E9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="1712">
+        <v>40</v>
+      </c>
+      <c r="B27" t="n" s="1724">
+        <v>0.0</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" t="n" s="1835">
+        <v>2.95033520086E7</v>
+      </c>
+      <c r="M27" t="n" s="1847">
+        <v>9825233.9425</v>
+      </c>
+      <c r="N27" t="n" s="1859">
+        <v>8.40743511754E7</v>
+      </c>
+      <c r="O27" t="n" s="1871">
+        <v>7.5741000174E7</v>
+      </c>
+      <c r="P27" t="n" s="1883">
+        <v>7078195.7826000005</v>
+      </c>
+      <c r="Q27" t="n" s="1895">
+        <v>3802636.1223</v>
+      </c>
+      <c r="R27" t="n" s="1907">
+        <v>1.097482948077E8</v>
+      </c>
+      <c r="S27" t="n" s="1919">
+        <v>1.80475850499E7</v>
+      </c>
+      <c r="T27" t="n" s="1931">
+        <v>368043.21920000005</v>
+      </c>
+      <c r="U27" t="n" s="1943">
+        <v>986168.1333</v>
+      </c>
+      <c r="V27" t="n" s="1955">
+        <v>-253919.658</v>
+      </c>
+      <c r="W27" t="n" s="1967">
+        <v>-140825.1013</v>
+      </c>
+      <c r="X27" t="n" s="1979">
+        <v>-6477.8001</v>
+      </c>
+      <c r="Y27" t="n" s="1991">
+        <v>-99723.1206</v>
+      </c>
+      <c r="Z27"/>
+      <c r="AA27" t="n" s="2014">
+        <v>30000.0</v>
+      </c>
+      <c r="AB27" t="n" s="2026">
+        <v>3581529.4308</v>
+      </c>
+      <c r="AC27" t="n" s="2038">
+        <v>1345607.0</v>
+      </c>
+      <c r="AD27" t="n" s="2050">
+        <v>-212795.3672</v>
+      </c>
+      <c r="AE27" t="n" s="2062">
+        <v>465885.0</v>
+      </c>
+      <c r="AF27" t="n" s="2074">
+        <v>314555.625</v>
+      </c>
+      <c r="AG27" t="n" s="2086">
+        <v>386316.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>